--- a/Smart Row Parent Partcode.xlsx
+++ b/Smart Row Parent Partcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vertivco-my.sharepoint.com/personal/sanket_bugade_vertivco_com/Documents/Documents/APP/my-streamlit-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{E78B3F63-4E7F-4CBF-8578-F9DEE28D0425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDC8EC27-1266-436F-B99D-53A2E1F5036C}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{E78B3F63-4E7F-4CBF-8578-F9DEE28D0425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C9398E6-0B59-41B2-809D-1382C5A4B2E0}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{9A64FB53-8709-49B2-BEC5-D0A2AC4A411D}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="238">
   <si>
     <t>Description</t>
   </si>
@@ -777,9 +777,6 @@
     <t>Subassembly, UPS O/P Distribution for SC1</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>LP</t>
   </si>
 </sst>
@@ -1000,16 +997,127 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="18">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1025,11 +1133,47 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1051,28 +1195,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1146,13 +1268,10 @@
       <sheetName val="VEPL_SMARTSOLUTION_DTP_INR"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="1">
           <cell r="C1" t="str">
             <v>Product Value</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>Value</v>
           </cell>
         </row>
         <row r="2">
@@ -41929,14 +42048,18 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3C7EDFF6-F4B1-46A1-AAAD-ACE3EF8BE9F3}" name="Table2" displayName="Table2" ref="A1:D57" totalsRowShown="0">
   <autoFilter ref="A1:D57" xr:uid="{3C7EDFF6-F4B1-46A1-AAAD-ACE3EF8BE9F3}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0201713B-365C-4E18-8B59-C82160436B08}" name="Item" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{0201713B-365C-4E18-8B59-C82160436B08}" name="Item" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{08C8D759-D663-4A0A-A4FE-296410B91C47}" name="Description"/>
     <tableColumn id="5" xr3:uid="{F7BC5DF1-245D-43E0-B9F8-29C3F764A98A}" name="Quantity"/>
-    <tableColumn id="8" xr3:uid="{28DE39ED-2F29-440C-953F-C1D0397D0FF7}" name="LP" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{28DE39ED-2F29-440C-953F-C1D0397D0FF7}" name="LP" dataDxfId="16">
       <calculatedColumnFormula array="1">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A2),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</calculatedColumnFormula>
     </tableColumn>
@@ -41946,13 +42069,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{904630A7-821A-466C-B09D-37A99E41F225}" name="Table1" displayName="Table1" ref="A1:D32" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{904630A7-821A-466C-B09D-37A99E41F225}" name="Table1" displayName="Table1" ref="A1:D32" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:D32" xr:uid="{904630A7-821A-466C-B09D-37A99E41F225}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4038F6B6-16E1-4211-9409-76961F84204D}" name="Item" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{E7AE195B-405C-4829-AFD2-4BFB04B154CE}" name="Description" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{C5D1E526-04E7-436C-AB26-908A94433498}" name="Quantity" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{1A55579C-A765-457B-BFB4-6EDF42CE7960}" name="LP" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{4038F6B6-16E1-4211-9409-76961F84204D}" name="Item" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{E7AE195B-405C-4829-AFD2-4BFB04B154CE}" name="Description" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{C5D1E526-04E7-436C-AB26-908A94433498}" name="Quantity" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{1A55579C-A765-457B-BFB4-6EDF42CE7960}" name="LP" dataDxfId="8">
       <calculatedColumnFormula array="1">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A2),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</calculatedColumnFormula>
     </tableColumn>
@@ -41962,16 +42085,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{37E12B78-64AE-47CC-B5F7-6E1EAE944EAE}" name="Table3" displayName="Table3" ref="A1:E84" totalsRowShown="0">
-  <autoFilter ref="A1:E84" xr:uid="{37E12B78-64AE-47CC-B5F7-6E1EAE944EAE}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{81DDDFA8-5FA1-4775-959B-874DA3901688}" name="Item" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{172E9D6C-E1E8-4513-8672-E3AF6DE2CC8A}" name="Description" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{E7317290-3C07-49D3-ABAC-C9434807AAAC}" name="Quantity"/>
-    <tableColumn id="6" xr3:uid="{D3AB9579-4424-40E5-BB9F-389A488836AA}" name="Column1" dataDxfId="5">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(A2, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{6AF05084-ECFE-4A9A-A5DD-49C06A4BD591}" name="LP">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{37E12B78-64AE-47CC-B5F7-6E1EAE944EAE}" name="Table3" displayName="Table3" ref="A1:D84" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:D84" xr:uid="{37E12B78-64AE-47CC-B5F7-6E1EAE944EAE}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{81DDDFA8-5FA1-4775-959B-874DA3901688}" name="Item" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{172E9D6C-E1E8-4513-8672-E3AF6DE2CC8A}" name="Description" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{E7317290-3C07-49D3-ABAC-C9434807AAAC}" name="Quantity" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{6AF05084-ECFE-4A9A-A5DD-49C06A4BD591}" name="LP" dataDxfId="1">
       <calculatedColumnFormula array="1">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A2),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</calculatedColumnFormula>
     </tableColumn>
@@ -42821,7 +42941,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42842,7 +42962,7 @@
         <v>130</v>
       </c>
       <c r="D1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -43749,7 +43869,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43771,7 +43891,7 @@
         <v>130</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -44275,10 +44395,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC62E752-F41D-43AD-801E-2D8B3E88FABD}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44286,1675 +44406,1339 @@
     <col min="1" max="1" width="16.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="113.6640625" style="22" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="0.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="E1" t="s">
-        <v>238</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
         <v>850000100000</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="9">
         <v>2</v>
       </c>
-      <c r="D2" s="13">
-        <f>_xlfn.XLOOKUP(A2, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>529947.51139999996</v>
-      </c>
-      <c r="E2" cm="1">
-        <f t="array" ref="E2">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A2),
+      <c r="D2" s="11" cm="1">
+        <f t="array" ref="D2">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A2),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>583783.10710000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>325721000000</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3">
-        <f>_xlfn.XLOOKUP(A3, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>186147.2445</v>
-      </c>
-      <c r="E3" cm="1">
-        <f t="array" ref="E3">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A3),
+      <c r="D3" s="11" cm="1">
+        <f t="array" ref="D3">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A3),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>204053</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>325720000000</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4">
-        <f>_xlfn.XLOOKUP(A4, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>110346.6</v>
-      </c>
-      <c r="E4" cm="1">
-        <f t="array" ref="E4">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A4),
+      <c r="D4" s="11" cm="1">
+        <f t="array" ref="D4">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A4),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>75131.8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>325721000001</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5">
-        <f>_xlfn.XLOOKUP(A5, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>112646.8636</v>
-      </c>
-      <c r="E5" cm="1">
-        <f t="array" ref="E5">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A5),
+      <c r="D5" s="11" cm="1">
+        <f t="array" ref="D5">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A5),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>140833</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
         <v>325703000017</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="D6">
-        <f>_xlfn.XLOOKUP(A6, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>261912</v>
-      </c>
-      <c r="E6" cm="1">
-        <f t="array" ref="E6">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A6),
+      <c r="D6" s="11" cm="1">
+        <f t="array" ref="D6">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A6),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>386203</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>325723000000</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7">
-        <f>_xlfn.XLOOKUP(A7, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>6379.8</v>
-      </c>
-      <c r="E7" cm="1">
-        <f t="array" ref="E7">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A7),
+      <c r="D7" s="11" cm="1">
+        <f t="array" ref="D7">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A7),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>6683.6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
         <v>681000071600</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="9">
         <v>4</v>
       </c>
-      <c r="D8">
-        <f>_xlfn.XLOOKUP(A8, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>34540</v>
-      </c>
-      <c r="E8" cm="1">
-        <f t="array" ref="E8">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A8),
+      <c r="D8" s="11" cm="1">
+        <f t="array" ref="D8">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A8),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>34540</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>325722000000</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <v>1</v>
       </c>
-      <c r="D9">
-        <f>_xlfn.XLOOKUP(A9, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>405986.7</v>
-      </c>
-      <c r="E9" cm="1">
-        <f t="array" ref="E9">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A9),
+      <c r="D9" s="11" cm="1">
+        <f t="array" ref="D9">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A9),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>233919.4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>325722000001</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10">
-        <f>_xlfn.XLOOKUP(A10, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>309586.13699999999</v>
-      </c>
-      <c r="E10" cm="1">
-        <f t="array" ref="E10">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A10),
+      <c r="D10" s="11" cm="1">
+        <f t="array" ref="D10">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A10),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>334400</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>325707000003</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="D11">
-        <f>_xlfn.XLOOKUP(A11, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>114961</v>
-      </c>
-      <c r="E11" cm="1">
-        <f t="array" ref="E11">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A11),
+      <c r="D11" s="11" cm="1">
+        <f t="array" ref="D11">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A11),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>114961</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>325707000005</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="9">
         <v>1</v>
       </c>
-      <c r="D12">
-        <f>_xlfn.XLOOKUP(A12, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>122061.34600000001</v>
-      </c>
-      <c r="E12" cm="1">
-        <f t="array" ref="E12">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A12),
+      <c r="D12" s="11" cm="1">
+        <f t="array" ref="D12">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A12),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>122061.34600000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
         <v>125004000018</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="9">
         <v>4</v>
       </c>
-      <c r="D13">
-        <f>_xlfn.XLOOKUP(A13, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>2625</v>
-      </c>
-      <c r="E13" cm="1">
-        <f t="array" ref="E13">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A13),
+      <c r="D13" s="11" cm="1">
+        <f t="array" ref="D13">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A13),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>5253.6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>125004000037</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="9">
         <v>4</v>
       </c>
-      <c r="D14">
-        <f>_xlfn.XLOOKUP(A14, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>3969</v>
-      </c>
-      <c r="E14" cm="1">
-        <f t="array" ref="E14">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A14),
+      <c r="D14" s="11" cm="1">
+        <f t="array" ref="D14">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A14),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>6279</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>125300000126</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="9">
         <v>4</v>
       </c>
-      <c r="D15">
-        <f>_xlfn.XLOOKUP(A15, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>29820</v>
-      </c>
-      <c r="E15" cm="1">
-        <f t="array" ref="E15">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A15),
+      <c r="D15" s="11" cm="1">
+        <f t="array" ref="D15">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A15),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>64767</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>492100639040</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="9">
         <v>1</v>
       </c>
-      <c r="D16">
-        <f>_xlfn.XLOOKUP(A16, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>35236.844989999998</v>
-      </c>
-      <c r="E16" cm="1">
-        <f t="array" ref="E16">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A16),
+      <c r="D16" s="11" cm="1">
+        <f t="array" ref="D16">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A16),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>42702</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>325705000033</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="9">
         <v>3</v>
       </c>
-      <c r="D17">
-        <f>_xlfn.XLOOKUP(A17, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>9500.2161950000009</v>
-      </c>
-      <c r="E17" cm="1">
-        <f t="array" ref="E17">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A17),
+      <c r="D17" s="11" cm="1">
+        <f t="array" ref="D17">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A17),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>13050</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>325715000000</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="9">
         <v>1</v>
       </c>
-      <c r="D18">
-        <f>_xlfn.XLOOKUP(A18, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>11220</v>
-      </c>
-      <c r="E18" cm="1">
-        <f t="array" ref="E18">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A18),
+      <c r="D18" s="11" cm="1">
+        <f t="array" ref="D18">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A18),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>11220</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
         <v>325715000001</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="9">
         <v>1</v>
       </c>
-      <c r="D19">
-        <f>_xlfn.XLOOKUP(A19, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>31640.400000000001</v>
-      </c>
-      <c r="E19" cm="1">
-        <f t="array" ref="E19">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A19),
+      <c r="D19" s="11" cm="1">
+        <f t="array" ref="D19">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A19),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>31640.400000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
         <v>325715000002</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="9">
         <v>1</v>
       </c>
-      <c r="D20">
-        <f>_xlfn.XLOOKUP(A20, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>37620</v>
-      </c>
-      <c r="E20" cm="1">
-        <f t="array" ref="E20">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A20),
+      <c r="D20" s="11" cm="1">
+        <f t="array" ref="D20">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A20),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>37620</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
         <v>325715000003</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="9">
         <v>1</v>
       </c>
-      <c r="D21">
-        <f>_xlfn.XLOOKUP(A21, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>103788.39780000001</v>
-      </c>
-      <c r="E21" cm="1">
-        <f t="array" ref="E21">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A21),
+      <c r="D21" s="11" cm="1">
+        <f t="array" ref="D21">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A21),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>97608</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
         <v>170893010359</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="9">
         <v>1</v>
       </c>
-      <c r="D22">
-        <f>_xlfn.XLOOKUP(A22, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>168</v>
-      </c>
-      <c r="E22" cm="1">
-        <f t="array" ref="E22">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A22),
+      <c r="D22" s="11" cm="1">
+        <f t="array" ref="D22">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A22),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
         <v>340101070019</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="9">
         <v>1</v>
       </c>
-      <c r="D23">
-        <f>_xlfn.XLOOKUP(A23, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>1930.180521</v>
-      </c>
-      <c r="E23" cm="1">
-        <f t="array" ref="E23">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A23),
+      <c r="D23" s="11" cm="1">
+        <f t="array" ref="D23">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A23),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>2562</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
         <v>325705000104</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="9">
         <v>1</v>
       </c>
-      <c r="D24" t="str">
-        <f>_xlfn.XLOOKUP(A24, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>Not Found</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
         <v>325705000003</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="9">
         <v>1</v>
       </c>
-      <c r="D25">
-        <f>_xlfn.XLOOKUP(A25, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>557840.80000000005</v>
-      </c>
-      <c r="E25" cm="1">
-        <f t="array" ref="E25">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A25),
+      <c r="D25" s="11" cm="1">
+        <f t="array" ref="D25">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A25),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>557840.80000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
         <v>325724210202</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="9">
         <v>1</v>
       </c>
-      <c r="D26">
-        <f>_xlfn.XLOOKUP(A26, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>1823978.1</v>
-      </c>
-      <c r="E26" cm="1">
-        <f t="array" ref="E26">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A26),
+      <c r="D26" s="11" cm="1">
+        <f t="array" ref="D26">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A26),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>1804486.33</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
         <v>325703000021</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="9">
         <v>1</v>
       </c>
-      <c r="D27">
-        <f>_xlfn.XLOOKUP(A27, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>120970.5</v>
-      </c>
-      <c r="E27" cm="1">
-        <f t="array" ref="E27">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A27),
+      <c r="D27" s="11" cm="1">
+        <f t="array" ref="D27">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A27),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>164078</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
         <v>325722000015</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="9">
         <v>1</v>
       </c>
-      <c r="D28">
-        <f>_xlfn.XLOOKUP(A28, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>128249</v>
-      </c>
-      <c r="E28" cm="1">
-        <f t="array" ref="E28">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A28),
+      <c r="D28" s="11" cm="1">
+        <f t="array" ref="D28">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A28),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>128249</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="9">
         <v>1</v>
       </c>
-      <c r="D29" t="str">
-        <f>_xlfn.XLOOKUP(A29, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>Not Found</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
         <v>325705000118</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="9">
         <v>1</v>
       </c>
-      <c r="D30">
-        <f>_xlfn.XLOOKUP(A30, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>526801</v>
-      </c>
-      <c r="E30" cm="1">
-        <f t="array" ref="E30">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A30),
+      <c r="D30" s="11" cm="1">
+        <f t="array" ref="D30">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A30),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>646775</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
         <v>325701000013</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="9">
         <v>1</v>
       </c>
-      <c r="D31">
-        <f>_xlfn.XLOOKUP(A31, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>84603.199999999997</v>
-      </c>
-      <c r="E31" cm="1">
-        <f t="array" ref="E31">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A31),
+      <c r="D31" s="11" cm="1">
+        <f t="array" ref="D31">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A31),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>84603.199999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
         <v>325720000001</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="9">
         <v>1</v>
       </c>
-      <c r="D32">
-        <f>_xlfn.XLOOKUP(A32, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>161020.20000000001</v>
-      </c>
-      <c r="E32" cm="1">
-        <f t="array" ref="E32">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A32),
+      <c r="D32" s="11" cm="1">
+        <f t="array" ref="D32">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A32),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>161020.20000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
         <v>325705000165</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="9">
         <v>1</v>
       </c>
-      <c r="D33">
-        <f>_xlfn.XLOOKUP(A33, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>726801</v>
-      </c>
-      <c r="E33" cm="1">
-        <f t="array" ref="E33">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A33),
+      <c r="D33" s="11" cm="1">
+        <f t="array" ref="D33">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A33),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>753887.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
         <v>325705000073</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="9">
         <v>1</v>
       </c>
-      <c r="D34">
-        <f>_xlfn.XLOOKUP(A34, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>103510</v>
-      </c>
-      <c r="E34" cm="1">
-        <f t="array" ref="E34">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A34),
+      <c r="D34" s="11" cm="1">
+        <f t="array" ref="D34">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A34),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>103510</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
         <v>325720000068</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="9">
         <v>1</v>
       </c>
-      <c r="D35">
-        <f>_xlfn.XLOOKUP(A35, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>103599.8</v>
-      </c>
-      <c r="E35" cm="1">
-        <f t="array" ref="E35">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A35),
+      <c r="D35" s="11" cm="1">
+        <f t="array" ref="D35">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A35),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>103599.8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
         <v>850000100004</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="9">
         <v>1</v>
       </c>
-      <c r="D36">
-        <f>_xlfn.XLOOKUP(A36, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>552000</v>
-      </c>
-      <c r="E36" cm="1">
-        <f t="array" ref="E36">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A36),
+      <c r="D36" s="11" cm="1">
+        <f t="array" ref="D36">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A36),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>1079603</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
+    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
         <v>325707000087</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="9">
         <v>1</v>
       </c>
-      <c r="D37">
-        <f>_xlfn.XLOOKUP(A37, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>136228</v>
-      </c>
-      <c r="E37" cm="1">
-        <f t="array" ref="E37">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A37),
+      <c r="D37" s="11" cm="1">
+        <f t="array" ref="D37">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A37),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>136228</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
         <v>325707000088</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="9">
         <v>1</v>
       </c>
-      <c r="D38">
-        <f>_xlfn.XLOOKUP(A38, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>99827</v>
-      </c>
-      <c r="E38" cm="1">
-        <f t="array" ref="E38">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A38),
+      <c r="D38" s="11" cm="1">
+        <f t="array" ref="D38">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A38),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>99827</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
         <v>325712000027</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="9">
         <v>1</v>
       </c>
-      <c r="D39">
-        <f>_xlfn.XLOOKUP(A39, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>77994</v>
-      </c>
-      <c r="E39" cm="1">
-        <f t="array" ref="E39">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A39),
+      <c r="D39" s="11" cm="1">
+        <f t="array" ref="D39">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A39),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>77994</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
         <v>325707000017</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="9">
         <v>1</v>
       </c>
-      <c r="D40">
-        <f>_xlfn.XLOOKUP(A40, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>10865.8</v>
-      </c>
-      <c r="E40" cm="1">
-        <f t="array" ref="E40">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A40),
+      <c r="D40" s="11" cm="1">
+        <f t="array" ref="D40">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A40),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>10865.8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
         <v>325712000008</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="9">
         <v>1</v>
       </c>
-      <c r="D41">
-        <f>_xlfn.XLOOKUP(A41, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>7418.4</v>
-      </c>
-      <c r="E41" cm="1">
-        <f t="array" ref="E41">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A41),
+      <c r="D41" s="11" cm="1">
+        <f t="array" ref="D41">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A41),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>7418.4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
+    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
         <v>325707000085</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="9">
         <v>1</v>
       </c>
-      <c r="D42">
-        <f>_xlfn.XLOOKUP(A42, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>135317</v>
-      </c>
-      <c r="E42" cm="1">
-        <f t="array" ref="E42">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A42),
+      <c r="D42" s="11" cm="1">
+        <f t="array" ref="D42">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A42),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>135317</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
+    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
         <v>325707000086</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="9">
         <v>1</v>
       </c>
-      <c r="D43">
-        <f>_xlfn.XLOOKUP(A43, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>156941</v>
-      </c>
-      <c r="E43" cm="1">
-        <f t="array" ref="E43">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A43),
+      <c r="D43" s="11" cm="1">
+        <f t="array" ref="D43">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A43),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>156941</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
         <v>325707000018</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="9">
         <v>1</v>
       </c>
-      <c r="D44">
-        <f>_xlfn.XLOOKUP(A44, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>10692</v>
-      </c>
-      <c r="E44" cm="1">
-        <f t="array" ref="E44">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A44),
+      <c r="D44" s="11" cm="1">
+        <f t="array" ref="D44">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A44),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>10692</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
         <v>325706000076</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="9">
         <v>1</v>
       </c>
-      <c r="D45">
-        <f>_xlfn.XLOOKUP(A45, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>11000</v>
-      </c>
-      <c r="E45" cm="1">
-        <f t="array" ref="E45">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A45),
+      <c r="D45" s="11" cm="1">
+        <f t="array" ref="D45">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A45),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>11000</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
+    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
         <v>325702000043</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="9">
         <v>1</v>
       </c>
-      <c r="D46">
-        <f>_xlfn.XLOOKUP(A46, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>4070</v>
-      </c>
-      <c r="E46" cm="1">
-        <f t="array" ref="E46">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A46),
+      <c r="D46" s="11" cm="1">
+        <f t="array" ref="D46">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A46),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>6141</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
         <v>325715000033</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="9">
         <v>1</v>
       </c>
-      <c r="D47">
-        <f>_xlfn.XLOOKUP(A47, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>55755</v>
-      </c>
-      <c r="E47" cm="1">
-        <f t="array" ref="E47">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A47),
+      <c r="D47" s="11" cm="1">
+        <f t="array" ref="D47">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A47),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>78057</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="8">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
         <v>200411300049</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="9">
         <v>1</v>
       </c>
-      <c r="D48">
-        <f>_xlfn.XLOOKUP(A48, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>14300</v>
-      </c>
-      <c r="E48" cm="1">
-        <f t="array" ref="E48">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A48),
+      <c r="D48" s="11" cm="1">
+        <f t="array" ref="D48">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A48),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>14300</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
         <v>200402043000</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="9">
         <v>1</v>
       </c>
-      <c r="D49">
-        <f>_xlfn.XLOOKUP(A49, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>23876.82</v>
-      </c>
-      <c r="E49" cm="1">
-        <f t="array" ref="E49">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A49),
+      <c r="D49" s="11" cm="1">
+        <f t="array" ref="D49">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A49),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>23876.82</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="8">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
         <v>325706000049</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="9">
         <v>1</v>
       </c>
-      <c r="D50">
-        <f>_xlfn.XLOOKUP(A50, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>15063.4</v>
-      </c>
-      <c r="E50" cm="1">
-        <f t="array" ref="E50">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A50),
+      <c r="D50" s="11" cm="1">
+        <f t="array" ref="D50">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A50),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>23622</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="8">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
         <v>121663000047</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="9">
         <v>1</v>
       </c>
-      <c r="D51">
-        <f>_xlfn.XLOOKUP(A51, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>23315.599999999999</v>
-      </c>
-      <c r="E51" cm="1">
-        <f t="array" ref="E51">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A51),
+      <c r="D51" s="11" cm="1">
+        <f t="array" ref="D51">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A51),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>23315.599999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="8">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
         <v>122310000075</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="9">
         <v>1</v>
       </c>
-      <c r="D52">
-        <f>_xlfn.XLOOKUP(A52, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>19399.599999999999</v>
-      </c>
-      <c r="E52" cm="1">
-        <f t="array" ref="E52">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A52),
+      <c r="D52" s="11" cm="1">
+        <f t="array" ref="D52">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A52),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>19399.599999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="8">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
         <v>122310000571</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="9">
         <v>1</v>
       </c>
-      <c r="D53">
-        <f>_xlfn.XLOOKUP(A53, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>70</v>
-      </c>
-      <c r="E53" cm="1">
-        <f t="array" ref="E53">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A53),
+      <c r="D53" s="11" cm="1">
+        <f t="array" ref="D53">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A53),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="8">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
         <v>170880002708</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="9">
         <v>1</v>
       </c>
-      <c r="D54" t="str">
-        <f>_xlfn.XLOOKUP(A54, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>Not Found</v>
-      </c>
-      <c r="E54">
+      <c r="D54" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="8">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
         <v>122120000049</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="9">
         <v>1</v>
       </c>
-      <c r="D55">
-        <f>_xlfn.XLOOKUP(A55, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>19</v>
-      </c>
-      <c r="E55" cm="1">
-        <f t="array" ref="E55">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A55),
+      <c r="D55" s="11" cm="1">
+        <f t="array" ref="D55">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A55),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="8">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
         <v>274041010001</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="9">
         <v>2</v>
       </c>
-      <c r="D56">
-        <f>_xlfn.XLOOKUP(A56, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>786</v>
-      </c>
-      <c r="E56" cm="1">
-        <f t="array" ref="E56">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A56),
+      <c r="D56" s="11" cm="1">
+        <f t="array" ref="D56">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A56),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>786</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="8">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="10">
         <v>325723000004</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="9">
         <v>1</v>
       </c>
-      <c r="D57">
-        <f>_xlfn.XLOOKUP(A57, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>5861.1</v>
-      </c>
-      <c r="E57" cm="1">
-        <f t="array" ref="E57">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A57),
+      <c r="D57" s="11" cm="1">
+        <f t="array" ref="D57">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A57),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>18285</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="8">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="10">
         <v>354200030701</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="9">
         <v>1</v>
       </c>
-      <c r="D58">
-        <f>_xlfn.XLOOKUP(A58, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>169127.2</v>
-      </c>
-      <c r="E58" cm="1">
-        <f t="array" ref="E58">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A58),
+      <c r="D58" s="11" cm="1">
+        <f t="array" ref="D58">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A58),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>178251</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="8">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="10">
         <v>775110504801</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="9">
         <v>1</v>
       </c>
-      <c r="D59">
-        <f>_xlfn.XLOOKUP(A59, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>32370.799999999999</v>
-      </c>
-      <c r="E59" cm="1">
-        <f t="array" ref="E59">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A59),
+      <c r="D59" s="11" cm="1">
+        <f t="array" ref="D59">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A59),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>32370.799999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="8">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="10">
         <v>124301500000</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="9">
         <v>1</v>
       </c>
-      <c r="D60">
-        <f>_xlfn.XLOOKUP(A60, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>67456.399999999994</v>
-      </c>
-      <c r="E60" cm="1">
-        <f t="array" ref="E60">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A60),
+      <c r="D60" s="11" cm="1">
+        <f t="array" ref="D60">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A60),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>67456.399999999994</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="8">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
         <v>400500500068</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="9">
         <v>1</v>
       </c>
-      <c r="D61">
-        <f>_xlfn.XLOOKUP(A61, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>8855.0159729999996</v>
-      </c>
-      <c r="E61" cm="1">
-        <f t="array" ref="E61">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A61),
+      <c r="D61" s="11" cm="1">
+        <f t="array" ref="D61">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A61),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>16000</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="8">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="10">
         <v>42201001190</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="9">
         <v>1</v>
       </c>
-      <c r="D62">
-        <f>_xlfn.XLOOKUP(A62, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>124.090538</v>
-      </c>
-      <c r="E62" cm="1">
-        <f t="array" ref="E62">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A62),
+      <c r="D62" s="11" cm="1">
+        <f t="array" ref="D62">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A62),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>124.090538</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="8">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="10">
         <v>504215079000</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="9">
         <v>1</v>
       </c>
-      <c r="D63">
-        <f>_xlfn.XLOOKUP(A63, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>340397.2</v>
-      </c>
-      <c r="E63" cm="1">
-        <f t="array" ref="E63">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A63),
+      <c r="D63" s="11" cm="1">
+        <f t="array" ref="D63">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A63),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>936150</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="8">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="10">
         <v>34000420342</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="9">
         <v>1</v>
       </c>
-      <c r="D64">
-        <f>_xlfn.XLOOKUP(A64, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>11000</v>
-      </c>
-      <c r="E64" cm="1">
-        <f t="array" ref="E64">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A64),
+      <c r="D64" s="11" cm="1">
+        <f t="array" ref="D64">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A64),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>11000</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="8">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="10">
         <v>32404002010</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="9">
         <v>1</v>
       </c>
-      <c r="D65">
-        <f>_xlfn.XLOOKUP(A65, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>14760</v>
-      </c>
-      <c r="E65" cm="1">
-        <f t="array" ref="E65">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A65),
+      <c r="D65" s="11" cm="1">
+        <f t="array" ref="D65">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A65),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>14760</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="8">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="10">
         <v>271921004221</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="9">
         <v>1</v>
       </c>
-      <c r="D66">
-        <f>_xlfn.XLOOKUP(A66, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>2600</v>
-      </c>
-      <c r="E66" cm="1">
-        <f t="array" ref="E66">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A66),
+      <c r="D66" s="11" cm="1">
+        <f t="array" ref="D66">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A66),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>2600</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="8">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="10">
         <v>124300630001</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="9">
         <v>1</v>
       </c>
-      <c r="D67">
-        <f>_xlfn.XLOOKUP(A67, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>6500</v>
-      </c>
-      <c r="E67" cm="1">
-        <f t="array" ref="E67">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A67),
+      <c r="D67" s="11" cm="1">
+        <f t="array" ref="D67">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A67),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>6500</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="8">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="10">
         <v>84607000001</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="9">
         <v>1</v>
       </c>
-      <c r="D68">
-        <f>_xlfn.XLOOKUP(A68, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>85.8</v>
-      </c>
-      <c r="E68" cm="1">
-        <f t="array" ref="E68">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A68),
+      <c r="D68" s="11" cm="1">
+        <f t="array" ref="D68">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A68),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>94.08</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="8">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="10">
         <v>42200601190</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="9">
         <v>1</v>
       </c>
-      <c r="D69">
-        <f>_xlfn.XLOOKUP(A69, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>80.096103999999997</v>
-      </c>
-      <c r="E69" cm="1">
-        <f t="array" ref="E69">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A69),
+      <c r="D69" s="11" cm="1">
+        <f t="array" ref="D69">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A69),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="8">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="10">
         <v>325701000065</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="9">
         <v>1</v>
       </c>
-      <c r="D70">
-        <f>_xlfn.XLOOKUP(A70, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>263235</v>
-      </c>
-      <c r="E70" cm="1">
-        <f t="array" ref="E70">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A70),
+      <c r="D70" s="11" cm="1">
+        <f t="array" ref="D70">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A70),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>408500</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="8">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="10">
         <v>325703000022</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="9">
         <v>1</v>
       </c>
-      <c r="D71">
-        <f>_xlfn.XLOOKUP(A71, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>138392.1</v>
-      </c>
-      <c r="E71" cm="1">
-        <f t="array" ref="E71">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A71),
+      <c r="D71" s="11" cm="1">
+        <f t="array" ref="D71">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A71),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>192678</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="8">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="10">
         <v>271921004218</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="9">
         <v>1</v>
       </c>
-      <c r="D72">
-        <f>_xlfn.XLOOKUP(A72, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>2600</v>
-      </c>
-      <c r="E72" cm="1">
-        <f t="array" ref="E72">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A72),
+      <c r="D72" s="11" cm="1">
+        <f t="array" ref="D72">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A72),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>2600</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="8">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="10">
         <v>280300633200</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="9">
         <v>1</v>
       </c>
-      <c r="D73">
-        <f>_xlfn.XLOOKUP(A73, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>1304.5999999999999</v>
-      </c>
-      <c r="E73" cm="1">
-        <f t="array" ref="E73">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A73),
+      <c r="D73" s="11" cm="1">
+        <f t="array" ref="D73">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A73),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>2531</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="8">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="10">
         <v>325703000029</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="9">
         <v>1</v>
       </c>
-      <c r="D74">
-        <f>_xlfn.XLOOKUP(A74, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>158475</v>
-      </c>
-      <c r="E74" cm="1">
-        <f t="array" ref="E74">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A74),
+      <c r="D74" s="11" cm="1">
+        <f t="array" ref="D74">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A74),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>158475</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="8">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="10">
         <v>325703000035</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="9">
         <v>1</v>
       </c>
-      <c r="D75">
-        <f>_xlfn.XLOOKUP(A75, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>307150</v>
-      </c>
-      <c r="E75" cm="1">
-        <f t="array" ref="E75">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A75),
+      <c r="D75" s="11" cm="1">
+        <f t="array" ref="D75">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A75),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>307150</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="8">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="10">
         <v>402001000938</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="9">
         <v>1</v>
       </c>
-      <c r="D76">
-        <f>_xlfn.XLOOKUP(A76, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>48523</v>
-      </c>
-      <c r="E76" cm="1">
-        <f t="array" ref="E76">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A76),
+      <c r="D76" s="11" cm="1">
+        <f t="array" ref="D76">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A76),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>48523</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="8">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="10">
         <v>34000420321</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="9">
         <v>1</v>
       </c>
-      <c r="D77">
-        <f>_xlfn.XLOOKUP(A77, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>6956.4</v>
-      </c>
-      <c r="E77" cm="1">
-        <f t="array" ref="E77">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A77),
+      <c r="D77" s="11" cm="1">
+        <f t="array" ref="D77">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A77),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>10062</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="8">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="10">
         <v>325723000002</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="9">
         <v>1</v>
       </c>
-      <c r="D78">
-        <f>_xlfn.XLOOKUP(A78, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>5317.2</v>
-      </c>
-      <c r="E78" cm="1">
-        <f t="array" ref="E78">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A78),
+      <c r="D78" s="11" cm="1">
+        <f t="array" ref="D78">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A78),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>5570.4</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="8">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="10">
         <v>325721000028</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="9">
         <v>1</v>
       </c>
-      <c r="D79">
-        <f>_xlfn.XLOOKUP(A79, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>30389</v>
-      </c>
-      <c r="E79" cm="1">
-        <f t="array" ref="E79">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A79),
+      <c r="D79" s="11" cm="1">
+        <f t="array" ref="D79">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A79),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>30389</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="8">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="10">
         <v>34000260335</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="9">
         <v>1</v>
       </c>
-      <c r="D80">
-        <f>_xlfn.XLOOKUP(A80, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>6600</v>
-      </c>
-      <c r="E80" cm="1">
-        <f t="array" ref="E80">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A80),
+      <c r="D80" s="11" cm="1">
+        <f t="array" ref="D80">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A80),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>6600</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="8">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="10">
         <v>32402601800</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="9">
         <v>1</v>
       </c>
-      <c r="D81">
-        <f>_xlfn.XLOOKUP(A81, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>4500</v>
-      </c>
-      <c r="E81" cm="1">
-        <f t="array" ref="E81">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A81),
+      <c r="D81" s="11" cm="1">
+        <f t="array" ref="D81">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A81),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>4500</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="8">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="10">
         <v>271921002614</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="9">
         <v>1</v>
       </c>
-      <c r="D82">
-        <f>_xlfn.XLOOKUP(A82, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>2000</v>
-      </c>
-      <c r="E82" cm="1">
-        <f t="array" ref="E82">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A82),
+      <c r="D82" s="11" cm="1">
+        <f t="array" ref="D82">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A82),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="8">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="10">
         <v>325721000056</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="9">
         <v>1</v>
       </c>
-      <c r="D83">
-        <f>_xlfn.XLOOKUP(A83, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>8500</v>
-      </c>
-      <c r="E83" cm="1">
-        <f t="array" ref="E83">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A83),
+      <c r="D83" s="11" cm="1">
+        <f t="array" ref="D83">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A83),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>8500</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="16">
         <v>1</v>
       </c>
-      <c r="D84" t="str">
-        <f>_xlfn.XLOOKUP(A84, [1]VEPL_SMARTSOLUTION_DTP_INR!C:C, [1]VEPL_SMARTSOLUTION_DTP_INR!K:K, "Not Found")</f>
-        <v>Not Found</v>
-      </c>
-      <c r="E84">
+      <c r="D84" s="17">
         <v>0</v>
       </c>
     </row>

--- a/Smart Row Parent Partcode.xlsx
+++ b/Smart Row Parent Partcode.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vertivco-my.sharepoint.com/personal/sanket_bugade_vertivco_com/Documents/Documents/APP/my-streamlit-app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\sales-chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{E78B3F63-4E7F-4CBF-8578-F9DEE28D0425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C9398E6-0B59-41B2-809D-1382C5A4B2E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171682BE-3F2B-4233-948F-6580F89BF6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{9A64FB53-8709-49B2-BEC5-D0A2AC4A411D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="7" xr2:uid="{9A64FB53-8709-49B2-BEC5-D0A2AC4A411D}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="5060S0210210" sheetId="3" r:id="rId2"/>
     <sheet name="5060S0210208" sheetId="2" r:id="rId3"/>
     <sheet name="5060S0210206" sheetId="4" r:id="rId4"/>
+    <sheet name="5060S0220201" sheetId="5" r:id="rId5"/>
+    <sheet name="5060S0220200" sheetId="6" r:id="rId6"/>
+    <sheet name="5060S0220203" sheetId="7" r:id="rId7"/>
+    <sheet name="5060S0220202" sheetId="8" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="347">
   <si>
     <t>Description</t>
   </si>
@@ -779,6 +783,333 @@
   <si>
     <t>LP</t>
   </si>
+  <si>
+    <t>CRV, 20 kW , with Digital Scroll, with Indoor and Outdoor, Anti Corrosive Unit</t>
+  </si>
+  <si>
+    <t>Manufactured Product, BOM of, SR-220</t>
+  </si>
+  <si>
+    <t>Subassembly, BOM, Electrical Accessories, SR-220 (RC &amp; Non-RC)</t>
+  </si>
+  <si>
+    <t>Kit, DB Panel, SR-320, SR-220 (RC &amp; Non-RC)</t>
+  </si>
+  <si>
+    <t>Subassembly, DB panel 1, DB panel 2 for SR-320, SR-220 (RC &amp; Non-RC) with Acrylic Cover Protection for MCB's</t>
+  </si>
+  <si>
+    <t>Subassembly, BOM, Electrical Accessories, SR-220 (RC &amp; Non-RC), Dual Power Source, 10 m Away</t>
+  </si>
+  <si>
+    <t>VR Rack 42U, 600 x 1200, Front &amp; Rear Perforated Door, VR3300</t>
+  </si>
+  <si>
+    <t>CRV, 20 kW , with Digital Scroll, with Indoor and Outdoor, Anti Corrosive Unit, with SFA</t>
+  </si>
+  <si>
+    <t>Vertiv, GU1, RPDU, Monitored, Upgradeable, 16A, 230/400V WYE, 3 Phase, Vertical, (36) IEC C13, (6) IEC C19, 3m power cord with 3P+N+E (IP44), Black Powder Coat</t>
+  </si>
+  <si>
+    <t>Subassembly, BOM, Back Door, CRV</t>
+  </si>
+  <si>
+    <t>Subassembly, BOM, Castor Wheel, CRV</t>
+  </si>
+  <si>
+    <t>Subassembly, BOM, Levelling Foot, CRV</t>
+  </si>
+  <si>
+    <t>Vertical Socket Strip, with 18 nos of IEC C13 Sockets and 6 nos, of IEC C19 Socket, with 2.5 Mtr Power Chord, with 32 A , 3 Phase MCB. RAL 9005</t>
+  </si>
+  <si>
+    <t>Subassembly, Rack Containment Frame, Server Rack, 19 inch, 42U, 600 W X 1800(300+1200+300) D with Packaging</t>
+  </si>
+  <si>
+    <t>CRV Containment Frame, 400W x 1800D(300+1200+300) CRV with Front Plain Door, Front, Middle and Rear Frame with Base, with Side Panels on both Sides (with Boughtout Accessories)</t>
+  </si>
+  <si>
+    <t>CRV+ CR030RC, Chilled Water, with 06 Fans, Precision Air Conditioning Machine</t>
+  </si>
+  <si>
+    <t>Industrial Wander Plug, 32 Amp, 3 Phase I-PDU, 5 Pin, Red Color, IEC309</t>
+  </si>
+  <si>
+    <t>Kit, Biometric Access Logic, Emergency Door Opening in SC-13-AC without Egress Switch</t>
+  </si>
+  <si>
+    <t>Subassembly, RDU and Monitoring, of SC-1-2 U3 2N/SC-1-2/SC-1-3 U3 2N/SC-1-3/SC-1-3 U6 2N/SC-1-3 U10 2N</t>
+  </si>
+  <si>
+    <t>Cat-6 Cable with RJ45 Connector at both end 5 Meter Each</t>
+  </si>
+  <si>
+    <t>Packing, for Export CRV Containment 400W, 7 Ply Corrugated Packing with Vacuuming</t>
+  </si>
+  <si>
+    <t>WRSTND01</t>
+  </si>
+  <si>
+    <t>5050SR0M0000</t>
+  </si>
+  <si>
+    <t>Qty wsie LP</t>
+  </si>
+  <si>
+    <t>Smart Subassembly, UPS ITA2, 3 X 3 / 3 X 1, 20 kVA x 2 with Communication Card</t>
+  </si>
+  <si>
+    <t>Subassembly, Battery Bank Kit for Combined 30 min Backup with External Battery, for 20 kVA x 2 UPS</t>
+  </si>
+  <si>
+    <t>Subassembly, Battery Bank Kit for Combined 60 min Backup with External Battery, for 20 kVA x 2 UPS</t>
+  </si>
+  <si>
+    <t>Manufactured Product, BOM of, SR-220 U20-2N</t>
+  </si>
+  <si>
+    <t>CRV4, CR025R, Inverter Scroll, Air Conditioning Machine with Indoor Top Piping and Outdoor with HCR-51 Condenser, with Fan Speed Controller and Anti Corrosive Coating</t>
+  </si>
+  <si>
+    <t>Corrugated Packing, 5 Ply, CRV4 Containment(400W) with EP Foam, 2286H x 1905D x 512D, for SmartRow</t>
+  </si>
+  <si>
+    <t>Corrugated Packing, 5 Ply, Utility Cabinet with EP Foam, 2286 (H) X 1118 (W) X 699 (D), for SmartRow</t>
+  </si>
+  <si>
+    <t>Brush, for Cable Entry, 58mm W X 8mm Thick, for SmartRow</t>
+  </si>
+  <si>
+    <t>Manufactured Product, BOM of, SR-220 RC 2</t>
+  </si>
+  <si>
+    <t>UPS Option Class, Automatic Regulatory Apparatus, for IT Systems, SR435RC</t>
+  </si>
+  <si>
+    <t>Battery Kit Option Class,Automatic Regulatory Apparatus, for IT Systems, SR435RC</t>
+  </si>
+  <si>
+    <t>Customer Specific Accessories, Option Class, Automatic Regulatory Apparatus for IT Systems, SC/SR</t>
+  </si>
+  <si>
+    <t>Subassembly, BOM, Basic, CRV20RA, SFA for Rajasthan City Surveillance</t>
+  </si>
+  <si>
+    <t>Subassembly, BOM, Condensate Pump, CRV</t>
+  </si>
+  <si>
+    <t>Subassembly, BOM, Bottle Humidifier, CRV</t>
+  </si>
+  <si>
+    <t>Subassembly, BOM, Unity, Dual Protocol Communication Card</t>
+  </si>
+  <si>
+    <t>Subassembly, BOM, Heater, CRV</t>
+  </si>
+  <si>
+    <t>Subassembly, BOM, Evaporator Coil Option, Coated, CRV20RA</t>
+  </si>
+  <si>
+    <t>Kit, Piping, Condenser Connections, Top, CRV20RA</t>
+  </si>
+  <si>
+    <t>Subassembly, Condenser, G.I., HCR-43, R-410A, with Fan Speed Controller with Anti Corrosive Coating</t>
+  </si>
+  <si>
+    <t>CRV Containment Frame, 1800D(300+1200+300) CRV with Both Side, Plain Door, Front Frame, Rear Frame and Base Frame, with Side Panels on Both Sides (with Boughtout Accessories)</t>
+  </si>
+  <si>
+    <t>CRV Containment Frame, 1800D(300+1200+300) CRV with Both Side, Plain Door, Front Frame, Rear Frame and Base Frame, without Side Panels on Both Sides (with Boughtout Accessories)</t>
+  </si>
+  <si>
+    <t>Rack Containment Frame, Network Rack, 42U, 19 inch, 800W x 1800D(300+1200+300),  with Front Glass Door and Rear Plain Split Door and EM Lock on both Front and Rear Door, with Boughtout Accessories</t>
+  </si>
+  <si>
+    <t>Battery Shelf, 3U, 42Ah-12V, 19 inch, Rack Mountable</t>
+  </si>
+  <si>
+    <t>Kit, Battery Cable Links, for 26 Ah, 42 Blocks, with Size 6 Nyvin Cable</t>
+  </si>
+  <si>
+    <t>Gasket, 25 X 3 mm Thick, Adhesive Type</t>
+  </si>
+  <si>
+    <t>Kit, Adjustable Rail, 1 Phase, Adapt, 21150652, 02354061</t>
+  </si>
+  <si>
+    <t>UPS, Liebert ITA, UHR43S673Z, 3 x 3, 40 KVA, 3 Phase (For AP), UHA3R-0400, 01201140</t>
+  </si>
+  <si>
+    <t>Battery Circuit Breaker Enclosure, 125 Amp, for 30 kVA / 40 kVA, NXC UPS, 3 Pole, +Ve 270 Vdc, Neutral, -Ve 270Vdc</t>
+  </si>
+  <si>
+    <t>Cable, NYVIN, 1 Core, Size 6, White, 660 / 1100 V Grade</t>
+  </si>
+  <si>
+    <t>Camera, ES-HNG130I-I, 1.30 Mega Pixel, 1/3 inch, CMOS ICR Day/Night  IP Box,AC Supply, DC12V/POE, Wall Mounted</t>
+  </si>
+  <si>
+    <t>Temperature and Humidity Sensor (RDU-A-S02TH)</t>
+  </si>
+  <si>
+    <t>Converter, AC to DC Converter, Power Circuits, Input 230V/2.2A or 115V/4A, Output 24 V, 8.8 Amp, LRS-200-24</t>
+  </si>
+  <si>
+    <t>CRV Containment Frame, 700W x 1800D(400+1000+400D) with Both Side, Plain Door, Front Frame, Rear Frame and Base Frame, with side panels on both sides (With boughtout accessories)</t>
+  </si>
+  <si>
+    <t>CRV Containment Frame, 700W x 1800D(400+1000+400D) with Both Side, Plain Door, Front Frame, Rear Frame and Base Frame, without side panels (With boughtout accessories)</t>
+  </si>
+  <si>
+    <t>IRM-4COM, 4COM extension card</t>
+  </si>
+  <si>
+    <t>IRMS04DIF - RDU-A-4DI-RJ45, 4 DI Module with RJ45 Connectors</t>
+  </si>
+  <si>
+    <t>IRM-S01W, 5 m, Water Strip Sensor</t>
+  </si>
+  <si>
+    <t>Smoke Detective Sensor, IRM-S01S-C</t>
+  </si>
+  <si>
+    <t>Access control for Single Door, Single leaf type with 1 EM Lock</t>
+  </si>
+  <si>
+    <t>Parallel Cable, 1 Meter, for ITA 2, 6 kVA/10 kVA/20 kVA UPS</t>
+  </si>
+  <si>
+    <t>Modem, TD-8411 USB 4G, for RDU</t>
+  </si>
+  <si>
+    <t>Function Module, RDU-THD, Smart Cabinet Sensor (T+TH+T)*2</t>
+  </si>
+  <si>
+    <t>PDU, 3 Ph, Vertical, 21 x 6/16 A Indian Socket 1P, 16A, MCB per Phase, D curve with Safety Guard, Power Indicator, 3mtr, 5C x 2.5 Sq.mm FRLS Power Cord Unterminated</t>
+  </si>
+  <si>
+    <t>Subassembly, BOM, Electrical Accessories, SR-220 (RC &amp; Non-RC), Without UPS</t>
+  </si>
+  <si>
+    <t>Kit, Electrical DB Panel, for SmartRow SR-870-RC, 3 CRV, with 125A incomers at PDUs</t>
+  </si>
+  <si>
+    <t>Kit, DB Contactor Panel, with 80 Amps TP MCCB as Incomer and 16 Amp Contactor</t>
+  </si>
+  <si>
+    <t>Kit Power Cable, for Contactor DB panel with 80 amps Incomer, for NAV project</t>
+  </si>
+  <si>
+    <t>4 Channel, DVR with 2 CCTV, (2 TB Hard Disc), with Cable and Power Supply</t>
+  </si>
+  <si>
+    <t>UPS Equipment, ITA2, 20K00Al3A02C, Rack/Tower-Mounted Standard High-Frequency Link Three &amp; Single Phase Input/Three &amp; Single Phase Output 20 kVA Intelligent Ups, ITA 20K00Al3A02C00</t>
+  </si>
+  <si>
+    <t>Kit, Battery Cable Links, for 100 Ah, 34 Blocks</t>
+  </si>
+  <si>
+    <t>Wire Harness, Parallel Communication Cable, 2M, For S600 &amp; Power Bank 600 UPS</t>
+  </si>
+  <si>
+    <t>Battery, Valve Regulated Lead Acid (AGM), Block, 100 Ah, 12 Vdc, Amararaja Quanta, Type - 12AL100 with 5 Years</t>
+  </si>
+  <si>
+    <t>Subassembly, CRV4 25kW Containment Frame (400W x (300+1200+300)D) &amp; Utility for RC2 Model for SmartRow</t>
+  </si>
+  <si>
+    <t>5055S010000J</t>
+  </si>
+  <si>
+    <t>5055S010000A</t>
+  </si>
+  <si>
+    <t>5055S010000N</t>
+  </si>
+  <si>
+    <t>Manufactured Product, BOM of, SR-220 RC 2 U20-2N</t>
+  </si>
+  <si>
+    <t>Kit, Battery Cable Links, for 26 Ah, 42 Blocks</t>
+  </si>
+  <si>
+    <t>Battery Rack Bolted Assembly, 1670 W x 630 D x 1410 H, 4 Tier</t>
+  </si>
+  <si>
+    <t>Battery Circuit Breaker Enclosure, 63 Amp MCCB 4 Pole, for 10 kA, ICS = ICU, 500 V DC, for 10 kVA, NXc UPS</t>
+  </si>
+  <si>
+    <t>Battery Shelf, 3U, 26Ah-12V, 19 inch, Rack Mountable</t>
+  </si>
+  <si>
+    <t>Kit, Battery Cable Links, for 24/26 Ah, 8 Blocks, G &amp; Y / AmaraRaja / Leoch / Exide Make Battery</t>
+  </si>
+  <si>
+    <t>Subassembly, Battery Bank Kit for combine 10 min Backup, 19'' Rack Mount Internal Battery 20 kVA x 2 UPS</t>
+  </si>
+  <si>
+    <t>4 Channel, DVR with 1 CCTV, (1 TB Hard Disc), with Cable and Power Supply</t>
+  </si>
+  <si>
+    <t>Battery Circuit Breaker Enclosure, 100 Amp MCCB 4 Pole, for 10 kA, ICS = ICU, 500 V DC, for 20 kVA, NXc UPS</t>
+  </si>
+  <si>
+    <t>Battery, Valve Regulated Lead Acid (AGM), Block, 65 Ah, 12 Vdc, Amararaja Quanta, Type - 12AL065, with 3 Years Warranty</t>
+  </si>
+  <si>
+    <t>Battery Rack Bolted Assembly, 1670 W x 630 D x 1835 H, 5 Tier</t>
+  </si>
+  <si>
+    <t>Kit, Battery Cable Links, for 65 Ah, 34 Blocks</t>
+  </si>
+  <si>
+    <t>Transformer, Input Isolation 10 kVA, 3 Phase, 415 V, 50 Hz, Class H, Natural Cooled</t>
+  </si>
+  <si>
+    <t>Geist RPDU-Gr30014L-Monitored, Outlet Level EC, Upgradeable, 32A, 230/400V Wye, 3 Phase, Vertical, (12) Locking IEC C13,(12) Locking IEC C19, Alternating Phase/Circuits, Breakered, 10 ft / 3M Power Cord with 3P+N+E (IP44)</t>
+  </si>
+  <si>
+    <t>Lugs, Copper, 6 Sqmm, Pin type, for Size 10 Uninyvin Cable</t>
+  </si>
+  <si>
+    <t>Lugs, Copper, 6 Sqmm, Ring type, with 8 mm Hole for Size 10 Uninyvin Cable</t>
+  </si>
+  <si>
+    <t>Transformer, Isolation, 25 kVA, 3 Phase, 415 V, 50 Hz, Class H, Natural Cooled</t>
+  </si>
+  <si>
+    <t>Transformer, Input Isolation 20 kVA, 3 Phase, 415 V, 50 Hz, Class H, Natural Cooled</t>
+  </si>
+  <si>
+    <t>Battery, Valve Regulated Lead Acid (AGM), Block, 65 Ah, 12 Vdc, Amararaja Quanta, Type - 12AL065, with 5 Years Warranty</t>
+  </si>
+  <si>
+    <t>Vertiv, rPDU, Metered Upgradeable, 32A, 230/400V WYE, 22.0kW, Vertical, (24) Locking IEC C13, (6) Locking IEC C19, 3m Power cord with 3P+N+E (IP44), Blue Powder Coat (GI10058L-B)</t>
+  </si>
+  <si>
+    <t>Battery Breaker Cabinet, with 63A 3 Pole MCB, 3 X 1, for 20 kva ITA 2 UPS</t>
+  </si>
+  <si>
+    <t>Kit, DB panel, SR-535, SR-435, SR-335, SR-235 (RC &amp; Non-RC)</t>
+  </si>
+  <si>
+    <t>Industrial Wander Socket, 32 Amp, 3 Phase I-PDU, 5 Pin, Red Color, IEC309</t>
+  </si>
+  <si>
+    <t>Network Switch, 24 Port Gigabit switch, TP- link, TL-SG1024D</t>
+  </si>
+  <si>
+    <t>Kit, Power Cable, for SmartRow SR-235 (RC &amp; Non-RC)</t>
+  </si>
+  <si>
+    <t>Kit Network Cable for SmartRow SR-210, SR-220, SR-235 (RC &amp; Non-RC)</t>
+  </si>
+  <si>
+    <t>Sensor, YD2015, Intelligent Electric Network Electricity Monitor, Current/Voltage Transformer, 24~48V, RS485, Current:6A, Phase Voltage:400V, Line Voltage:600V, 2.0%,N/A,-10~50℃, None, 110*75*72mm, NR, In-door</t>
+  </si>
+  <si>
+    <t>Vertiv, rPDU, Metered Upgradeable, 32A, 230/400V WYE, 22.0kW, Vertical, (24) Locking IEC C13, (6) Locking IEC C19, 3m Power cord with 3P+N+E (IP44), Red Powder Coat (GI10058L-R)</t>
+  </si>
 </sst>
 </file>
 
@@ -949,25 +1280,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -980,7 +1311,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -993,12 +1324,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="33">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1006,8 +1370,12 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -1021,7 +1389,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1084,7 +1454,9 @@
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1103,10 +1475,54 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1124,12 +1540,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
+        <top/>
+        <bottom/>
+        <vertical style="thin">
           <color indexed="64"/>
-        </top>
-        <bottom style="thin">
+        </vertical>
+        <horizontal style="thin">
           <color indexed="64"/>
-        </bottom>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -42048,20 +42466,19 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3C7EDFF6-F4B1-46A1-AAAD-ACE3EF8BE9F3}" name="Table2" displayName="Table2" ref="A1:D57" totalsRowShown="0">
-  <autoFilter ref="A1:D57" xr:uid="{3C7EDFF6-F4B1-46A1-AAAD-ACE3EF8BE9F3}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0201713B-365C-4E18-8B59-C82160436B08}" name="Item" dataDxfId="17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3C7EDFF6-F4B1-46A1-AAAD-ACE3EF8BE9F3}" name="Table2" displayName="Table2" ref="A1:E57" totalsRowShown="0">
+  <autoFilter ref="A1:E57" xr:uid="{3C7EDFF6-F4B1-46A1-AAAD-ACE3EF8BE9F3}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0201713B-365C-4E18-8B59-C82160436B08}" name="Item" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{08C8D759-D663-4A0A-A4FE-296410B91C47}" name="Description"/>
     <tableColumn id="5" xr3:uid="{F7BC5DF1-245D-43E0-B9F8-29C3F764A98A}" name="Quantity"/>
-    <tableColumn id="8" xr3:uid="{28DE39ED-2F29-440C-953F-C1D0397D0FF7}" name="LP" dataDxfId="16">
+    <tableColumn id="8" xr3:uid="{28DE39ED-2F29-440C-953F-C1D0397D0FF7}" name="LP" dataDxfId="31">
       <calculatedColumnFormula array="1">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A2),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{21023CAA-5F15-497D-B11E-C9394C6FFC23}" name="Qty wsie LP" dataDxfId="16">
+      <calculatedColumnFormula>C2*Table2[[#This Row],[LP]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -42069,15 +42486,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{904630A7-821A-466C-B09D-37A99E41F225}" name="Table1" displayName="Table1" ref="A1:D32" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:D32" xr:uid="{904630A7-821A-466C-B09D-37A99E41F225}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4038F6B6-16E1-4211-9409-76961F84204D}" name="Item" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{E7AE195B-405C-4829-AFD2-4BFB04B154CE}" name="Description" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{C5D1E526-04E7-436C-AB26-908A94433498}" name="Quantity" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{1A55579C-A765-457B-BFB4-6EDF42CE7960}" name="LP" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{904630A7-821A-466C-B09D-37A99E41F225}" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="A1:E32" xr:uid="{904630A7-821A-466C-B09D-37A99E41F225}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4038F6B6-16E1-4211-9409-76961F84204D}" name="Item" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{E7AE195B-405C-4829-AFD2-4BFB04B154CE}" name="Description" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{C5D1E526-04E7-436C-AB26-908A94433498}" name="Quantity" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{1A55579C-A765-457B-BFB4-6EDF42CE7960}" name="LP" dataDxfId="23">
       <calculatedColumnFormula array="1">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A2),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{076D8E59-4A9E-4D67-9678-9B5DE424F89D}" name="Qty wsie LP" dataDxfId="15">
+      <calculatedColumnFormula>C2*Table1[[#This Row],[LP]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -42085,15 +42505,94 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{37E12B78-64AE-47CC-B5F7-6E1EAE944EAE}" name="Table3" displayName="Table3" ref="A1:D84" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:D84" xr:uid="{37E12B78-64AE-47CC-B5F7-6E1EAE944EAE}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{81DDDFA8-5FA1-4775-959B-874DA3901688}" name="Item" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{172E9D6C-E1E8-4513-8672-E3AF6DE2CC8A}" name="Description" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{E7317290-3C07-49D3-ABAC-C9434807AAAC}" name="Quantity" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{6AF05084-ECFE-4A9A-A5DD-49C06A4BD591}" name="LP" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{37E12B78-64AE-47CC-B5F7-6E1EAE944EAE}" name="Table3" displayName="Table3" ref="A1:E84" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="A1:E84" xr:uid="{37E12B78-64AE-47CC-B5F7-6E1EAE944EAE}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{81DDDFA8-5FA1-4775-959B-874DA3901688}" name="Item" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{172E9D6C-E1E8-4513-8672-E3AF6DE2CC8A}" name="Description" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{E7317290-3C07-49D3-ABAC-C9434807AAAC}" name="Quantity" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{6AF05084-ECFE-4A9A-A5DD-49C06A4BD591}" name="LP" dataDxfId="11">
       <calculatedColumnFormula array="1">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A2),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{83B4EFB7-E20D-4432-9471-E27D2E7D6DAC}" name="Qty wsie LP" dataDxfId="10">
+      <calculatedColumnFormula>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3EFEA428-9BB4-4DEF-B2CD-F5F769716203}" name="Table4" displayName="Table4" ref="A1:E48" totalsRowShown="0">
+  <autoFilter ref="A1:E48" xr:uid="{3EFEA428-9BB4-4DEF-B2CD-F5F769716203}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B85A7070-BFDC-4DB6-8BD7-DE2374BFE89C}" name="Item" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{91461845-39CE-4900-9D79-2AE44CE6324D}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{3C1C3B1A-99F3-46DD-B896-98C7F12E9445}" name="Quantity"/>
+    <tableColumn id="4" xr3:uid="{EC2A1F65-3772-451F-9567-99A93CCE9E26}" name="LP" dataDxfId="17">
+      <calculatedColumnFormula array="1">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A2),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{6C9B35FF-3E1B-40EC-A561-A060BC203357}" name="Qty wsie LP" dataDxfId="9">
+      <calculatedColumnFormula>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{82D5540B-6527-4578-8CBD-B9AD12B74479}" name="Table5" displayName="Table5" ref="A1:E44" totalsRowShown="0">
+  <autoFilter ref="A1:E44" xr:uid="{82D5540B-6527-4578-8CBD-B9AD12B74479}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B28803BC-22E9-49EF-9E2D-16679C8CE541}" name="Item" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{29B25591-F3DA-4290-AF3E-4C6F62392079}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{591E7218-18C9-49CA-9ECB-EA5BB11F8B62}" name="Quantity"/>
+    <tableColumn id="4" xr3:uid="{1E1C9703-6CFD-4EAD-835B-1A91BFB91CC7}" name="LP" dataDxfId="7">
+      <calculatedColumnFormula array="1">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A2),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{6B6AA927-CA1F-4405-8658-207CF33681A0}" name="Qty wsie LP" dataDxfId="6">
+      <calculatedColumnFormula>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C2F89075-4CAF-41D6-852C-91DC5A7F6093}" name="Table6" displayName="Table6" ref="A1:E96" totalsRowShown="0">
+  <autoFilter ref="A1:E96" xr:uid="{C2F89075-4CAF-41D6-852C-91DC5A7F6093}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{145B3AD2-C254-4595-A36D-B1968B9EF2D2}" name="Item" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{23ADD3B7-2215-430C-98C1-F66F023317A7}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{5BA569A4-19BE-42B0-B208-16AFFAEB9F82}" name="Quantity"/>
+    <tableColumn id="4" xr3:uid="{A195BDB7-F21E-43FB-A828-DCBC71C59D96}" name="LP" dataDxfId="4">
+      <calculatedColumnFormula array="1">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A2),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{DFE74E17-5FD1-42BE-8800-CB463D49DF3E}" name="Qty wsie LP" dataDxfId="3">
+      <calculatedColumnFormula>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0FA2F9B6-5238-4891-A6EC-B9D522485C0F}" name="Table7" displayName="Table7" ref="A1:E91" totalsRowShown="0">
+  <autoFilter ref="A1:E91" xr:uid="{0FA2F9B6-5238-4891-A6EC-B9D522485C0F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{DED418C9-0493-4AA5-83EF-E38B2F344D56}" name="Item" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{44BEA712-2D92-44B4-B86C-5A5AE9AC1FAF}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{2315948E-8335-4D91-BF57-E7A77221FDEA}" name="Quantity"/>
+    <tableColumn id="4" xr3:uid="{C53B673B-CA4B-4828-A8EA-6ECF47C2089E}" name="LP" dataDxfId="1">
+      <calculatedColumnFormula array="1">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A2),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{7D56045F-DA72-4D5C-B28E-35DB414934B6}" name="Qty wsie LP" dataDxfId="0">
+      <calculatedColumnFormula>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -42397,10 +42896,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE314A2D-DF32-4DF6-9B35-7845EB47C936}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42938,10 +43438,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47156D9E-1218-49D6-9C7E-285642D58680}">
-  <dimension ref="A1:D57"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42951,7 +43452,7 @@
     <col min="3" max="3" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>129</v>
       </c>
@@ -42964,8 +43465,11 @@
       <c r="D1" t="s">
         <v>237</v>
       </c>
+      <c r="E1" t="s">
+        <v>261</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>850000100000</v>
       </c>
@@ -42980,8 +43484,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>583783.10710000002</v>
       </c>
+      <c r="E2">
+        <f>C2*Table2[[#This Row],[LP]]</f>
+        <v>583783.10710000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>325721000000</v>
       </c>
@@ -42996,8 +43504,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>204053</v>
       </c>
+      <c r="E3">
+        <f>C3*Table2[[#This Row],[LP]]</f>
+        <v>204053</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>325721000001</v>
       </c>
@@ -43012,8 +43524,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>140833</v>
       </c>
+      <c r="E4">
+        <f>C4*Table2[[#This Row],[LP]]</f>
+        <v>140833</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>325703000017</v>
       </c>
@@ -43028,8 +43544,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>386203</v>
       </c>
+      <c r="E5">
+        <f>C5*Table2[[#This Row],[LP]]</f>
+        <v>386203</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>325723000000</v>
       </c>
@@ -43044,8 +43564,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>6683.6</v>
       </c>
+      <c r="E6">
+        <f>C6*Table2[[#This Row],[LP]]</f>
+        <v>6683.6</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>325705000003</v>
       </c>
@@ -43060,8 +43584,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>557840.80000000005</v>
       </c>
+      <c r="E7">
+        <f>C7*Table2[[#This Row],[LP]]</f>
+        <v>557840.80000000005</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>325707000003</v>
       </c>
@@ -43076,8 +43604,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>114961</v>
       </c>
+      <c r="E8">
+        <f>C8*Table2[[#This Row],[LP]]</f>
+        <v>114961</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>325707000005</v>
       </c>
@@ -43092,8 +43624,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>122061.34600000001</v>
       </c>
+      <c r="E9">
+        <f>C9*Table2[[#This Row],[LP]]</f>
+        <v>122061.34600000001</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>125004000018</v>
       </c>
@@ -43108,8 +43644,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>5253.6</v>
       </c>
+      <c r="E10">
+        <f>C10*Table2[[#This Row],[LP]]</f>
+        <v>21014.400000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>125004000037</v>
       </c>
@@ -43124,8 +43664,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>6279</v>
       </c>
+      <c r="E11">
+        <f>C11*Table2[[#This Row],[LP]]</f>
+        <v>25116</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>125300000126</v>
       </c>
@@ -43140,8 +43684,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>64767</v>
       </c>
+      <c r="E12">
+        <f>C12*Table2[[#This Row],[LP]]</f>
+        <v>259068</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>492100639040</v>
       </c>
@@ -43156,8 +43704,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>42702</v>
       </c>
+      <c r="E13">
+        <f>C13*Table2[[#This Row],[LP]]</f>
+        <v>42702</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>325705000033</v>
       </c>
@@ -43172,8 +43724,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>13050</v>
       </c>
+      <c r="E14">
+        <f>C14*Table2[[#This Row],[LP]]</f>
+        <v>39150</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>325715000000</v>
       </c>
@@ -43188,8 +43744,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>11220</v>
       </c>
+      <c r="E15">
+        <f>C15*Table2[[#This Row],[LP]]</f>
+        <v>11220</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>325715000001</v>
       </c>
@@ -43204,8 +43764,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>31640.400000000001</v>
       </c>
+      <c r="E16">
+        <f>C16*Table2[[#This Row],[LP]]</f>
+        <v>31640.400000000001</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>325715000002</v>
       </c>
@@ -43220,8 +43784,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>37620</v>
       </c>
+      <c r="E17">
+        <f>C17*Table2[[#This Row],[LP]]</f>
+        <v>37620</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>325715000003</v>
       </c>
@@ -43236,8 +43804,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>97608</v>
       </c>
+      <c r="E18">
+        <f>C18*Table2[[#This Row],[LP]]</f>
+        <v>97608</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>170893010359</v>
       </c>
@@ -43252,8 +43824,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>240</v>
       </c>
+      <c r="E19">
+        <f>C19*Table2[[#This Row],[LP]]</f>
+        <v>240</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>340101070019</v>
       </c>
@@ -43268,8 +43844,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>2562</v>
       </c>
+      <c r="E20">
+        <f>C20*Table2[[#This Row],[LP]]</f>
+        <v>2562</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>325705000104</v>
       </c>
@@ -43282,8 +43862,12 @@
       <c r="D21">
         <v>0</v>
       </c>
+      <c r="E21">
+        <f>C21*Table2[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>153</v>
       </c>
@@ -43296,8 +43880,12 @@
       <c r="D22">
         <v>0</v>
       </c>
+      <c r="E22">
+        <f>C22*Table2[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>325724210201</v>
       </c>
@@ -43312,8 +43900,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>1581664</v>
       </c>
+      <c r="E23">
+        <f>C23*Table2[[#This Row],[LP]]</f>
+        <v>1581664</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>325720000000</v>
       </c>
@@ -43328,8 +43920,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>75131.8</v>
       </c>
+      <c r="E24">
+        <f>C24*Table2[[#This Row],[LP]]</f>
+        <v>75131.8</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>325705000118</v>
       </c>
@@ -43344,8 +43940,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>646775</v>
       </c>
+      <c r="E25">
+        <f>C25*Table2[[#This Row],[LP]]</f>
+        <v>646775</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>325701000013</v>
       </c>
@@ -43360,8 +43960,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>84603.199999999997</v>
       </c>
+      <c r="E26">
+        <f>C26*Table2[[#This Row],[LP]]</f>
+        <v>84603.199999999997</v>
+      </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>325720000001</v>
       </c>
@@ -43376,8 +43980,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>161020.20000000001</v>
       </c>
+      <c r="E27">
+        <f>C27*Table2[[#This Row],[LP]]</f>
+        <v>161020.20000000001</v>
+      </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>325705000165</v>
       </c>
@@ -43392,8 +44000,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>753887.5</v>
       </c>
+      <c r="E28">
+        <f>C28*Table2[[#This Row],[LP]]</f>
+        <v>753887.5</v>
+      </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>325705000073</v>
       </c>
@@ -43408,8 +44020,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>103510</v>
       </c>
+      <c r="E29">
+        <f>C29*Table2[[#This Row],[LP]]</f>
+        <v>103510</v>
+      </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>325720000068</v>
       </c>
@@ -43424,8 +44040,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>103599.8</v>
       </c>
+      <c r="E30">
+        <f>C30*Table2[[#This Row],[LP]]</f>
+        <v>103599.8</v>
+      </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>325703000022</v>
       </c>
@@ -43440,8 +44060,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>192678</v>
       </c>
+      <c r="E31">
+        <f>C31*Table2[[#This Row],[LP]]</f>
+        <v>192678</v>
+      </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>402001000474</v>
       </c>
@@ -43456,8 +44080,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>167960</v>
       </c>
+      <c r="E32">
+        <f>C32*Table2[[#This Row],[LP]]</f>
+        <v>167960</v>
+      </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>34000260305</v>
       </c>
@@ -43472,8 +44100,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>3982</v>
       </c>
+      <c r="E33">
+        <f>C33*Table2[[#This Row],[LP]]</f>
+        <v>3982</v>
+      </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>271921002600</v>
       </c>
@@ -43488,8 +44120,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>1709.4</v>
       </c>
+      <c r="E34">
+        <f>C34*Table2[[#This Row],[LP]]</f>
+        <v>1709.4</v>
+      </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>280300635110</v>
       </c>
@@ -43504,8 +44140,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>522</v>
       </c>
+      <c r="E35">
+        <f>C35*Table2[[#This Row],[LP]]</f>
+        <v>522</v>
+      </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>84607000001</v>
       </c>
@@ -43520,8 +44160,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>94.08</v>
       </c>
+      <c r="E36">
+        <f>C36*Table2[[#This Row],[LP]]</f>
+        <v>94.08</v>
+      </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>42200601190</v>
       </c>
@@ -43536,8 +44180,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>159</v>
       </c>
+      <c r="E37">
+        <f>C37*Table2[[#This Row],[LP]]</f>
+        <v>159</v>
+      </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>2351786</v>
       </c>
@@ -43552,8 +44200,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>2200</v>
       </c>
+      <c r="E38">
+        <f>C38*Table2[[#This Row],[LP]]</f>
+        <v>2200</v>
+      </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>930102358960</v>
       </c>
@@ -43568,8 +44220,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>3887</v>
       </c>
+      <c r="E39">
+        <f>C39*Table2[[#This Row],[LP]]</f>
+        <v>3887</v>
+      </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>32402602400</v>
       </c>
@@ -43584,8 +44240,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>5400</v>
       </c>
+      <c r="E40">
+        <f>C40*Table2[[#This Row],[LP]]</f>
+        <v>5400</v>
+      </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>271921002617</v>
       </c>
@@ -43600,8 +44260,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>2000</v>
       </c>
+      <c r="E41">
+        <f>C41*Table2[[#This Row],[LP]]</f>
+        <v>2000</v>
+      </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>124300630001</v>
       </c>
@@ -43616,8 +44280,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>6500</v>
       </c>
+      <c r="E42">
+        <f>C42*Table2[[#This Row],[LP]]</f>
+        <v>6500</v>
+      </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>536600103001</v>
       </c>
@@ -43632,8 +44300,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>105500</v>
       </c>
+      <c r="E43">
+        <f>C43*Table2[[#This Row],[LP]]</f>
+        <v>105500</v>
+      </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>850000100004</v>
       </c>
@@ -43648,8 +44320,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>1079603</v>
       </c>
+      <c r="E44">
+        <f>C44*Table2[[#This Row],[LP]]</f>
+        <v>1079603</v>
+      </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>325703000029</v>
       </c>
@@ -43664,8 +44340,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>158475</v>
       </c>
+      <c r="E45">
+        <f>C45*Table2[[#This Row],[LP]]</f>
+        <v>158475</v>
+      </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>325703000035</v>
       </c>
@@ -43680,8 +44360,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>307150</v>
       </c>
+      <c r="E46">
+        <f>C46*Table2[[#This Row],[LP]]</f>
+        <v>307150</v>
+      </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>125004000054</v>
       </c>
@@ -43696,8 +44380,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>9074</v>
       </c>
+      <c r="E47">
+        <f>C47*Table2[[#This Row],[LP]]</f>
+        <v>9074</v>
+      </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>325723000050</v>
       </c>
@@ -43712,8 +44400,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>68884</v>
       </c>
+      <c r="E48">
+        <f>C48*Table2[[#This Row],[LP]]</f>
+        <v>68884</v>
+      </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>325721000028</v>
       </c>
@@ -43728,8 +44420,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>30389</v>
       </c>
+      <c r="E49">
+        <f>C49*Table2[[#This Row],[LP]]</f>
+        <v>30389</v>
+      </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>33010469</v>
       </c>
@@ -43744,8 +44440,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>1590</v>
       </c>
+      <c r="E50">
+        <f>C50*Table2[[#This Row],[LP]]</f>
+        <v>1590</v>
+      </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>40992503102</v>
       </c>
@@ -43760,8 +44460,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>115</v>
       </c>
+      <c r="E51">
+        <f>C51*Table2[[#This Row],[LP]]</f>
+        <v>115</v>
+      </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>325723000002</v>
       </c>
@@ -43776,8 +44480,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>5570.4</v>
       </c>
+      <c r="E52">
+        <f>C52*Table2[[#This Row],[LP]]</f>
+        <v>5570.4</v>
+      </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>325701000065</v>
       </c>
@@ -43792,8 +44500,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>408500</v>
       </c>
+      <c r="E53">
+        <f>C53*Table2[[#This Row],[LP]]</f>
+        <v>408500</v>
+      </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>402001000473</v>
       </c>
@@ -43808,8 +44520,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>134640</v>
       </c>
+      <c r="E54">
+        <f>C54*Table2[[#This Row],[LP]]</f>
+        <v>134640</v>
+      </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>125004000061</v>
       </c>
@@ -43824,8 +44540,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>7794</v>
       </c>
+      <c r="E55">
+        <f>C55*Table2[[#This Row],[LP]]</f>
+        <v>7794</v>
+      </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>402001000828</v>
       </c>
@@ -43840,8 +44560,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>107342.39999999999</v>
       </c>
+      <c r="E56">
+        <f>C56*Table2[[#This Row],[LP]]</f>
+        <v>107342.39999999999</v>
+      </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>162</v>
       </c>
@@ -43852,6 +44576,10 @@
         <v>1</v>
       </c>
       <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f>C57*Table2[[#This Row],[LP]]</f>
         <v>0</v>
       </c>
     </row>
@@ -43866,10 +44594,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B563714-5FAC-4758-8C94-2E42789F90B9}">
-  <dimension ref="A1:D32"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43880,7 +44609,7 @@
     <col min="4" max="16384" width="9.21875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>129</v>
       </c>
@@ -43893,8 +44622,11 @@
       <c r="D1" s="13" t="s">
         <v>237</v>
       </c>
+      <c r="E1" s="13" t="s">
+        <v>261</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>850000100000</v>
       </c>
@@ -43909,8 +44641,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>583783.10710000002</v>
       </c>
+      <c r="E2">
+        <f>C2*Table1[[#This Row],[LP]]</f>
+        <v>583783.10710000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>325720000000</v>
       </c>
@@ -43925,8 +44661,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>75131.8</v>
       </c>
+      <c r="E3" s="9">
+        <f>C3*Table1[[#This Row],[LP]]</f>
+        <v>75131.8</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>325721000001</v>
       </c>
@@ -43941,8 +44681,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>140833</v>
       </c>
+      <c r="E4" s="9">
+        <f>C4*Table1[[#This Row],[LP]]</f>
+        <v>140833</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>325703000018</v>
       </c>
@@ -43957,8 +44701,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>194678</v>
       </c>
+      <c r="E5" s="9">
+        <f>C5*Table1[[#This Row],[LP]]</f>
+        <v>194678</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>325712000004</v>
       </c>
@@ -43973,8 +44721,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>63993.599999999999</v>
       </c>
+      <c r="E6" s="9">
+        <f>C6*Table1[[#This Row],[LP]]</f>
+        <v>63993.599999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>325723000002</v>
       </c>
@@ -43989,8 +44741,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>5570.4</v>
       </c>
+      <c r="E7" s="9">
+        <f>C7*Table1[[#This Row],[LP]]</f>
+        <v>5570.4</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>325705000003</v>
       </c>
@@ -44005,8 +44761,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>557840.80000000005</v>
       </c>
+      <c r="E8" s="9">
+        <f>C8*Table1[[#This Row],[LP]]</f>
+        <v>557840.80000000005</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>325703000000</v>
       </c>
@@ -44021,8 +44781,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>15411</v>
       </c>
+      <c r="E9" s="9">
+        <f>C9*Table1[[#This Row],[LP]]</f>
+        <v>30822</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>325707000003</v>
       </c>
@@ -44037,8 +44801,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>114961</v>
       </c>
+      <c r="E10" s="9">
+        <f>C10*Table1[[#This Row],[LP]]</f>
+        <v>114961</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>325707000005</v>
       </c>
@@ -44053,8 +44821,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>122061.34600000001</v>
       </c>
+      <c r="E11" s="9">
+        <f>C11*Table1[[#This Row],[LP]]</f>
+        <v>122061.34600000001</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>125004000018</v>
       </c>
@@ -44069,8 +44841,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>5253.6</v>
       </c>
+      <c r="E12" s="9">
+        <f>C12*Table1[[#This Row],[LP]]</f>
+        <v>21014.400000000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>125004000037</v>
       </c>
@@ -44085,8 +44861,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>6279</v>
       </c>
+      <c r="E13" s="9">
+        <f>C13*Table1[[#This Row],[LP]]</f>
+        <v>25116</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>125300000126</v>
       </c>
@@ -44101,8 +44881,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>64767</v>
       </c>
+      <c r="E14" s="9">
+        <f>C14*Table1[[#This Row],[LP]]</f>
+        <v>259068</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>492100639040</v>
       </c>
@@ -44117,8 +44901,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>42702</v>
       </c>
+      <c r="E15" s="9">
+        <f>C15*Table1[[#This Row],[LP]]</f>
+        <v>42702</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>325705000033</v>
       </c>
@@ -44133,8 +44921,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>13050</v>
       </c>
+      <c r="E16" s="9">
+        <f>C16*Table1[[#This Row],[LP]]</f>
+        <v>39150</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>325715000000</v>
       </c>
@@ -44149,8 +44941,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>11220</v>
       </c>
+      <c r="E17" s="9">
+        <f>C17*Table1[[#This Row],[LP]]</f>
+        <v>11220</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>325715000001</v>
       </c>
@@ -44165,8 +44961,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>31640.400000000001</v>
       </c>
+      <c r="E18" s="9">
+        <f>C18*Table1[[#This Row],[LP]]</f>
+        <v>31640.400000000001</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>325715000002</v>
       </c>
@@ -44181,8 +44981,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>37620</v>
       </c>
+      <c r="E19" s="9">
+        <f>C19*Table1[[#This Row],[LP]]</f>
+        <v>37620</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>325715000003</v>
       </c>
@@ -44197,8 +45001,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>97608</v>
       </c>
+      <c r="E20" s="9">
+        <f>C20*Table1[[#This Row],[LP]]</f>
+        <v>97608</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>170893010359</v>
       </c>
@@ -44213,8 +45021,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>240</v>
       </c>
+      <c r="E21" s="9">
+        <f>C21*Table1[[#This Row],[LP]]</f>
+        <v>240</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>340101070019</v>
       </c>
@@ -44229,8 +45041,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>2562</v>
       </c>
+      <c r="E22" s="9">
+        <f>C22*Table1[[#This Row],[LP]]</f>
+        <v>2562</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>325705000104</v>
       </c>
@@ -44243,8 +45059,12 @@
       <c r="D23" s="9">
         <v>0</v>
       </c>
+      <c r="E23" s="9">
+        <f>C23*Table1[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>153</v>
       </c>
@@ -44257,8 +45077,12 @@
       <c r="D24" s="9">
         <v>0</v>
       </c>
+      <c r="E24" s="9">
+        <f>C24*Table1[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>325724210200</v>
       </c>
@@ -44273,8 +45097,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>956107</v>
       </c>
+      <c r="E25" s="9">
+        <f>C25*Table1[[#This Row],[LP]]</f>
+        <v>956107</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>325705000118</v>
       </c>
@@ -44289,8 +45117,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>646775</v>
       </c>
+      <c r="E26" s="9">
+        <f>C26*Table1[[#This Row],[LP]]</f>
+        <v>646775</v>
+      </c>
     </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>325701000013</v>
       </c>
@@ -44305,8 +45137,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>84603.199999999997</v>
       </c>
+      <c r="E27" s="9">
+        <f>C27*Table1[[#This Row],[LP]]</f>
+        <v>84603.199999999997</v>
+      </c>
     </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>325720000001</v>
       </c>
@@ -44321,8 +45157,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>161020.20000000001</v>
       </c>
+      <c r="E28" s="9">
+        <f>C28*Table1[[#This Row],[LP]]</f>
+        <v>161020.20000000001</v>
+      </c>
     </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>325705000165</v>
       </c>
@@ -44337,8 +45177,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>753887.5</v>
       </c>
+      <c r="E29" s="9">
+        <f>C29*Table1[[#This Row],[LP]]</f>
+        <v>753887.5</v>
+      </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>325705000073</v>
       </c>
@@ -44353,8 +45197,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>103510</v>
       </c>
+      <c r="E30" s="9">
+        <f>C30*Table1[[#This Row],[LP]]</f>
+        <v>103510</v>
+      </c>
     </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>325720000068</v>
       </c>
@@ -44369,8 +45217,12 @@
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>103599.8</v>
       </c>
+      <c r="E31" s="9">
+        <f>C31*Table1[[#This Row],[LP]]</f>
+        <v>103599.8</v>
+      </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>162</v>
       </c>
@@ -44381,6 +45233,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="16">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9">
+        <f>C32*Table1[[#This Row],[LP]]</f>
         <v>0</v>
       </c>
     </row>
@@ -44395,10 +45251,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC62E752-F41D-43AD-801E-2D8B3E88FABD}">
-  <dimension ref="A1:D84"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44408,7 +45265,7 @@
     <col min="3" max="3" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>129</v>
       </c>
@@ -44421,9 +45278,12 @@
       <c r="D1" s="14" t="s">
         <v>237</v>
       </c>
+      <c r="E1" s="13" t="s">
+        <v>261</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="24">
         <v>850000100000</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -44432,14 +45292,18 @@
       <c r="C2" s="9">
         <v>2</v>
       </c>
-      <c r="D2" s="11" cm="1">
+      <c r="D2" s="9" cm="1">
         <f t="array" ref="D2">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A2),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>583783.10710000002</v>
       </c>
+      <c r="E2" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>1167566.2142</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
         <v>325721000000</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -44448,14 +45312,18 @@
       <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="11" cm="1">
+      <c r="D3" s="9" cm="1">
         <f t="array" ref="D3">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A3),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>204053</v>
       </c>
+      <c r="E3" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>204053</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
         <v>325720000000</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -44464,14 +45332,18 @@
       <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="11" cm="1">
+      <c r="D4" s="9" cm="1">
         <f t="array" ref="D4">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A4),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>75131.8</v>
       </c>
+      <c r="E4" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>75131.8</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
         <v>325721000001</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -44480,14 +45352,18 @@
       <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="11" cm="1">
+      <c r="D5" s="9" cm="1">
         <f t="array" ref="D5">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A5),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>140833</v>
       </c>
+      <c r="E5" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>140833</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
         <v>325703000017</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -44496,14 +45372,18 @@
       <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="11" cm="1">
+      <c r="D6" s="9" cm="1">
         <f t="array" ref="D6">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A6),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>386203</v>
       </c>
+      <c r="E6" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>386203</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
         <v>325723000000</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -44512,14 +45392,18 @@
       <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" s="11" cm="1">
+      <c r="D7" s="9" cm="1">
         <f t="array" ref="D7">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A7),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>6683.6</v>
       </c>
+      <c r="E7" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>6683.6</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="24">
         <v>681000071600</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -44528,14 +45412,18 @@
       <c r="C8" s="9">
         <v>4</v>
       </c>
-      <c r="D8" s="11" cm="1">
+      <c r="D8" s="9" cm="1">
         <f t="array" ref="D8">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A8),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>34540</v>
       </c>
+      <c r="E8" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>138160</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24">
         <v>325722000000</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -44544,14 +45432,18 @@
       <c r="C9" s="9">
         <v>1</v>
       </c>
-      <c r="D9" s="11" cm="1">
+      <c r="D9" s="9" cm="1">
         <f t="array" ref="D9">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A9),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>233919.4</v>
       </c>
+      <c r="E9" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>233919.4</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="24">
         <v>325722000001</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -44560,14 +45452,18 @@
       <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="11" cm="1">
+      <c r="D10" s="9" cm="1">
         <f t="array" ref="D10">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A10),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>334400</v>
       </c>
+      <c r="E10" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>334400</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
         <v>325707000003</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -44576,14 +45472,18 @@
       <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="D11" s="11" cm="1">
+      <c r="D11" s="9" cm="1">
         <f t="array" ref="D11">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A11),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>114961</v>
       </c>
+      <c r="E11" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>114961</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
         <v>325707000005</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -44592,14 +45492,18 @@
       <c r="C12" s="9">
         <v>1</v>
       </c>
-      <c r="D12" s="11" cm="1">
+      <c r="D12" s="9" cm="1">
         <f t="array" ref="D12">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A12),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>122061.34600000001</v>
       </c>
+      <c r="E12" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>122061.34600000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
         <v>125004000018</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -44608,14 +45512,18 @@
       <c r="C13" s="9">
         <v>4</v>
       </c>
-      <c r="D13" s="11" cm="1">
+      <c r="D13" s="9" cm="1">
         <f t="array" ref="D13">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A13),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>5253.6</v>
       </c>
+      <c r="E13" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>21014.400000000001</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
         <v>125004000037</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -44624,14 +45532,18 @@
       <c r="C14" s="9">
         <v>4</v>
       </c>
-      <c r="D14" s="11" cm="1">
+      <c r="D14" s="9" cm="1">
         <f t="array" ref="D14">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A14),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>6279</v>
       </c>
+      <c r="E14" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>25116</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
         <v>125300000126</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -44640,14 +45552,18 @@
       <c r="C15" s="9">
         <v>4</v>
       </c>
-      <c r="D15" s="11" cm="1">
+      <c r="D15" s="9" cm="1">
         <f t="array" ref="D15">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A15),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>64767</v>
       </c>
+      <c r="E15" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>259068</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
         <v>492100639040</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -44656,14 +45572,18 @@
       <c r="C16" s="9">
         <v>1</v>
       </c>
-      <c r="D16" s="11" cm="1">
+      <c r="D16" s="9" cm="1">
         <f t="array" ref="D16">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A16),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>42702</v>
       </c>
+      <c r="E16" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>42702</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
         <v>325705000033</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -44672,14 +45592,18 @@
       <c r="C17" s="9">
         <v>3</v>
       </c>
-      <c r="D17" s="11" cm="1">
+      <c r="D17" s="9" cm="1">
         <f t="array" ref="D17">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A17),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>13050</v>
       </c>
+      <c r="E17" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>39150</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
         <v>325715000000</v>
       </c>
       <c r="B18" s="20" t="s">
@@ -44688,14 +45612,18 @@
       <c r="C18" s="9">
         <v>1</v>
       </c>
-      <c r="D18" s="11" cm="1">
+      <c r="D18" s="9" cm="1">
         <f t="array" ref="D18">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A18),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>11220</v>
       </c>
+      <c r="E18" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>11220</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
         <v>325715000001</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -44704,14 +45632,18 @@
       <c r="C19" s="9">
         <v>1</v>
       </c>
-      <c r="D19" s="11" cm="1">
+      <c r="D19" s="9" cm="1">
         <f t="array" ref="D19">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A19),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>31640.400000000001</v>
       </c>
+      <c r="E19" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>31640.400000000001</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="24">
         <v>325715000002</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -44720,14 +45652,18 @@
       <c r="C20" s="9">
         <v>1</v>
       </c>
-      <c r="D20" s="11" cm="1">
+      <c r="D20" s="9" cm="1">
         <f t="array" ref="D20">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A20),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>37620</v>
       </c>
+      <c r="E20" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>37620</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
         <v>325715000003</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -44736,14 +45672,18 @@
       <c r="C21" s="9">
         <v>1</v>
       </c>
-      <c r="D21" s="11" cm="1">
+      <c r="D21" s="9" cm="1">
         <f t="array" ref="D21">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A21),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>97608</v>
       </c>
+      <c r="E21" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>97608</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="24">
         <v>170893010359</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -44752,14 +45692,18 @@
       <c r="C22" s="9">
         <v>1</v>
       </c>
-      <c r="D22" s="11" cm="1">
+      <c r="D22" s="9" cm="1">
         <f t="array" ref="D22">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A22),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>240</v>
       </c>
+      <c r="E22" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>240</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="24">
         <v>340101070019</v>
       </c>
       <c r="B23" s="20" t="s">
@@ -44768,14 +45712,18 @@
       <c r="C23" s="9">
         <v>1</v>
       </c>
-      <c r="D23" s="11" cm="1">
+      <c r="D23" s="9" cm="1">
         <f t="array" ref="D23">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A23),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>2562</v>
       </c>
+      <c r="E23" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>2562</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="24">
         <v>325705000104</v>
       </c>
       <c r="B24" s="20" t="s">
@@ -44784,12 +45732,16 @@
       <c r="C24" s="9">
         <v>1</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="9">
         <v>0</v>
       </c>
+      <c r="E24" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="24">
         <v>325705000003</v>
       </c>
       <c r="B25" s="20" t="s">
@@ -44798,14 +45750,18 @@
       <c r="C25" s="9">
         <v>1</v>
       </c>
-      <c r="D25" s="11" cm="1">
+      <c r="D25" s="9" cm="1">
         <f t="array" ref="D25">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A25),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>557840.80000000005</v>
       </c>
+      <c r="E25" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>557840.80000000005</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="24">
         <v>325724210202</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -44814,14 +45770,18 @@
       <c r="C26" s="9">
         <v>1</v>
       </c>
-      <c r="D26" s="11" cm="1">
+      <c r="D26" s="9" cm="1">
         <f t="array" ref="D26">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A26),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>1804486.33</v>
       </c>
+      <c r="E26" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>1804486.33</v>
+      </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
         <v>325703000021</v>
       </c>
       <c r="B27" s="20" t="s">
@@ -44830,14 +45790,18 @@
       <c r="C27" s="9">
         <v>1</v>
       </c>
-      <c r="D27" s="11" cm="1">
+      <c r="D27" s="9" cm="1">
         <f t="array" ref="D27">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A27),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>164078</v>
       </c>
+      <c r="E27" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>164078</v>
+      </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="24">
         <v>325722000015</v>
       </c>
       <c r="B28" s="20" t="s">
@@ -44846,14 +45810,18 @@
       <c r="C28" s="9">
         <v>1</v>
       </c>
-      <c r="D28" s="11" cm="1">
+      <c r="D28" s="9" cm="1">
         <f t="array" ref="D28">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A28),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>128249</v>
       </c>
+      <c r="E28" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>128249</v>
+      </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
         <v>153</v>
       </c>
       <c r="B29" s="20" t="s">
@@ -44862,12 +45830,16 @@
       <c r="C29" s="9">
         <v>1</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="9">
         <v>0</v>
       </c>
+      <c r="E29" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="24">
         <v>325705000118</v>
       </c>
       <c r="B30" s="20" t="s">
@@ -44876,14 +45848,18 @@
       <c r="C30" s="9">
         <v>1</v>
       </c>
-      <c r="D30" s="11" cm="1">
+      <c r="D30" s="9" cm="1">
         <f t="array" ref="D30">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A30),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>646775</v>
       </c>
+      <c r="E30" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>646775</v>
+      </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="24">
         <v>325701000013</v>
       </c>
       <c r="B31" s="20" t="s">
@@ -44892,14 +45868,18 @@
       <c r="C31" s="9">
         <v>1</v>
       </c>
-      <c r="D31" s="11" cm="1">
+      <c r="D31" s="9" cm="1">
         <f t="array" ref="D31">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A31),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>84603.199999999997</v>
       </c>
+      <c r="E31" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>84603.199999999997</v>
+      </c>
     </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="24">
         <v>325720000001</v>
       </c>
       <c r="B32" s="20" t="s">
@@ -44908,14 +45888,18 @@
       <c r="C32" s="9">
         <v>1</v>
       </c>
-      <c r="D32" s="11" cm="1">
+      <c r="D32" s="9" cm="1">
         <f t="array" ref="D32">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A32),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>161020.20000000001</v>
       </c>
+      <c r="E32" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>161020.20000000001</v>
+      </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="24">
         <v>325705000165</v>
       </c>
       <c r="B33" s="20" t="s">
@@ -44924,14 +45908,18 @@
       <c r="C33" s="9">
         <v>1</v>
       </c>
-      <c r="D33" s="11" cm="1">
+      <c r="D33" s="9" cm="1">
         <f t="array" ref="D33">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A33),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>753887.5</v>
       </c>
+      <c r="E33" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>753887.5</v>
+      </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="24">
         <v>325705000073</v>
       </c>
       <c r="B34" s="20" t="s">
@@ -44940,14 +45928,18 @@
       <c r="C34" s="9">
         <v>1</v>
       </c>
-      <c r="D34" s="11" cm="1">
+      <c r="D34" s="9" cm="1">
         <f t="array" ref="D34">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A34),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>103510</v>
       </c>
+      <c r="E34" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>103510</v>
+      </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="24">
         <v>325720000068</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -44956,14 +45948,18 @@
       <c r="C35" s="9">
         <v>1</v>
       </c>
-      <c r="D35" s="11" cm="1">
+      <c r="D35" s="9" cm="1">
         <f t="array" ref="D35">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A35),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>103599.8</v>
       </c>
+      <c r="E35" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>103599.8</v>
+      </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="24">
         <v>850000100004</v>
       </c>
       <c r="B36" s="20" t="s">
@@ -44972,14 +45968,18 @@
       <c r="C36" s="9">
         <v>1</v>
       </c>
-      <c r="D36" s="11" cm="1">
+      <c r="D36" s="9" cm="1">
         <f t="array" ref="D36">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A36),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>1079603</v>
       </c>
+      <c r="E36" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>1079603</v>
+      </c>
     </row>
-    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
+    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="24">
         <v>325707000087</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -44988,14 +45988,18 @@
       <c r="C37" s="9">
         <v>1</v>
       </c>
-      <c r="D37" s="11" cm="1">
+      <c r="D37" s="9" cm="1">
         <f t="array" ref="D37">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A37),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>136228</v>
       </c>
+      <c r="E37" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>136228</v>
+      </c>
     </row>
-    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="10">
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="24">
         <v>325707000088</v>
       </c>
       <c r="B38" s="20" t="s">
@@ -45004,14 +46008,18 @@
       <c r="C38" s="9">
         <v>1</v>
       </c>
-      <c r="D38" s="11" cm="1">
+      <c r="D38" s="9" cm="1">
         <f t="array" ref="D38">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A38),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>99827</v>
       </c>
+      <c r="E38" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>99827</v>
+      </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="24">
         <v>325712000027</v>
       </c>
       <c r="B39" s="20" t="s">
@@ -45020,14 +46028,18 @@
       <c r="C39" s="9">
         <v>1</v>
       </c>
-      <c r="D39" s="11" cm="1">
+      <c r="D39" s="9" cm="1">
         <f t="array" ref="D39">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A39),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>77994</v>
       </c>
+      <c r="E39" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>77994</v>
+      </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="10">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="24">
         <v>325707000017</v>
       </c>
       <c r="B40" s="20" t="s">
@@ -45036,14 +46048,18 @@
       <c r="C40" s="9">
         <v>1</v>
       </c>
-      <c r="D40" s="11" cm="1">
+      <c r="D40" s="9" cm="1">
         <f t="array" ref="D40">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A40),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>10865.8</v>
       </c>
+      <c r="E40" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>10865.8</v>
+      </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="10">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="24">
         <v>325712000008</v>
       </c>
       <c r="B41" s="20" t="s">
@@ -45052,14 +46068,18 @@
       <c r="C41" s="9">
         <v>1</v>
       </c>
-      <c r="D41" s="11" cm="1">
+      <c r="D41" s="9" cm="1">
         <f t="array" ref="D41">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A41),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>7418.4</v>
       </c>
+      <c r="E41" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>7418.4</v>
+      </c>
     </row>
-    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="10">
+    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="24">
         <v>325707000085</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -45068,14 +46088,18 @@
       <c r="C42" s="9">
         <v>1</v>
       </c>
-      <c r="D42" s="11" cm="1">
+      <c r="D42" s="9" cm="1">
         <f t="array" ref="D42">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A42),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>135317</v>
       </c>
+      <c r="E42" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>135317</v>
+      </c>
     </row>
-    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="10">
+    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="24">
         <v>325707000086</v>
       </c>
       <c r="B43" s="20" t="s">
@@ -45084,14 +46108,18 @@
       <c r="C43" s="9">
         <v>1</v>
       </c>
-      <c r="D43" s="11" cm="1">
+      <c r="D43" s="9" cm="1">
         <f t="array" ref="D43">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A43),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>156941</v>
       </c>
+      <c r="E43" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>156941</v>
+      </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="10">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="24">
         <v>325707000018</v>
       </c>
       <c r="B44" s="20" t="s">
@@ -45100,14 +46128,18 @@
       <c r="C44" s="9">
         <v>1</v>
       </c>
-      <c r="D44" s="11" cm="1">
+      <c r="D44" s="9" cm="1">
         <f t="array" ref="D44">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A44),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>10692</v>
       </c>
+      <c r="E44" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>10692</v>
+      </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="24">
         <v>325706000076</v>
       </c>
       <c r="B45" s="20" t="s">
@@ -45116,14 +46148,18 @@
       <c r="C45" s="9">
         <v>1</v>
       </c>
-      <c r="D45" s="11" cm="1">
+      <c r="D45" s="9" cm="1">
         <f t="array" ref="D45">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A45),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>11000</v>
       </c>
+      <c r="E45" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>11000</v>
+      </c>
     </row>
-    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="10">
+    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="24">
         <v>325702000043</v>
       </c>
       <c r="B46" s="20" t="s">
@@ -45132,14 +46168,18 @@
       <c r="C46" s="9">
         <v>1</v>
       </c>
-      <c r="D46" s="11" cm="1">
+      <c r="D46" s="9" cm="1">
         <f t="array" ref="D46">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A46),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>6141</v>
       </c>
+      <c r="E46" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>6141</v>
+      </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="10">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="24">
         <v>325715000033</v>
       </c>
       <c r="B47" s="20" t="s">
@@ -45148,14 +46188,18 @@
       <c r="C47" s="9">
         <v>1</v>
       </c>
-      <c r="D47" s="11" cm="1">
+      <c r="D47" s="9" cm="1">
         <f t="array" ref="D47">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A47),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>78057</v>
       </c>
+      <c r="E47" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>78057</v>
+      </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="10">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="24">
         <v>200411300049</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -45164,14 +46208,18 @@
       <c r="C48" s="9">
         <v>1</v>
       </c>
-      <c r="D48" s="11" cm="1">
+      <c r="D48" s="9" cm="1">
         <f t="array" ref="D48">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A48),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>14300</v>
       </c>
+      <c r="E48" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>14300</v>
+      </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="10">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="24">
         <v>200402043000</v>
       </c>
       <c r="B49" s="20" t="s">
@@ -45180,14 +46228,18 @@
       <c r="C49" s="9">
         <v>1</v>
       </c>
-      <c r="D49" s="11" cm="1">
+      <c r="D49" s="9" cm="1">
         <f t="array" ref="D49">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A49),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>23876.82</v>
       </c>
+      <c r="E49" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>23876.82</v>
+      </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="10">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="24">
         <v>325706000049</v>
       </c>
       <c r="B50" s="20" t="s">
@@ -45196,14 +46248,18 @@
       <c r="C50" s="9">
         <v>1</v>
       </c>
-      <c r="D50" s="11" cm="1">
+      <c r="D50" s="9" cm="1">
         <f t="array" ref="D50">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A50),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>23622</v>
       </c>
+      <c r="E50" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>23622</v>
+      </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="10">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="24">
         <v>121663000047</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -45212,14 +46268,18 @@
       <c r="C51" s="9">
         <v>1</v>
       </c>
-      <c r="D51" s="11" cm="1">
+      <c r="D51" s="9" cm="1">
         <f t="array" ref="D51">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A51),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>23315.599999999999</v>
       </c>
+      <c r="E51" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>23315.599999999999</v>
+      </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="10">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="24">
         <v>122310000075</v>
       </c>
       <c r="B52" s="20" t="s">
@@ -45228,14 +46288,18 @@
       <c r="C52" s="9">
         <v>1</v>
       </c>
-      <c r="D52" s="11" cm="1">
+      <c r="D52" s="9" cm="1">
         <f t="array" ref="D52">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A52),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>19399.599999999999</v>
       </c>
+      <c r="E52" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>19399.599999999999</v>
+      </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="10">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="24">
         <v>122310000571</v>
       </c>
       <c r="B53" s="20" t="s">
@@ -45244,14 +46308,18 @@
       <c r="C53" s="9">
         <v>1</v>
       </c>
-      <c r="D53" s="11" cm="1">
+      <c r="D53" s="9" cm="1">
         <f t="array" ref="D53">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A53),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>70</v>
       </c>
+      <c r="E53" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>70</v>
+      </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="10">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="24">
         <v>170880002708</v>
       </c>
       <c r="B54" s="20" t="s">
@@ -45260,12 +46328,16 @@
       <c r="C54" s="9">
         <v>1</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="9">
         <v>0</v>
       </c>
+      <c r="E54" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="10">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="24">
         <v>122120000049</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -45274,14 +46346,18 @@
       <c r="C55" s="9">
         <v>1</v>
       </c>
-      <c r="D55" s="11" cm="1">
+      <c r="D55" s="9" cm="1">
         <f t="array" ref="D55">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A55),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>19</v>
       </c>
+      <c r="E55" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>19</v>
+      </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="10">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="24">
         <v>274041010001</v>
       </c>
       <c r="B56" s="20" t="s">
@@ -45290,14 +46366,18 @@
       <c r="C56" s="9">
         <v>2</v>
       </c>
-      <c r="D56" s="11" cm="1">
+      <c r="D56" s="9" cm="1">
         <f t="array" ref="D56">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A56),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>786</v>
       </c>
+      <c r="E56" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>1572</v>
+      </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="10">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="24">
         <v>325723000004</v>
       </c>
       <c r="B57" s="20" t="s">
@@ -45306,14 +46386,18 @@
       <c r="C57" s="9">
         <v>1</v>
       </c>
-      <c r="D57" s="11" cm="1">
+      <c r="D57" s="9" cm="1">
         <f t="array" ref="D57">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A57),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>18285</v>
       </c>
+      <c r="E57" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>18285</v>
+      </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="10">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="24">
         <v>354200030701</v>
       </c>
       <c r="B58" s="20" t="s">
@@ -45322,14 +46406,18 @@
       <c r="C58" s="9">
         <v>1</v>
       </c>
-      <c r="D58" s="11" cm="1">
+      <c r="D58" s="9" cm="1">
         <f t="array" ref="D58">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A58),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>178251</v>
       </c>
+      <c r="E58" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>178251</v>
+      </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="10">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="24">
         <v>775110504801</v>
       </c>
       <c r="B59" s="20" t="s">
@@ -45338,14 +46426,18 @@
       <c r="C59" s="9">
         <v>1</v>
       </c>
-      <c r="D59" s="11" cm="1">
+      <c r="D59" s="9" cm="1">
         <f t="array" ref="D59">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A59),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>32370.799999999999</v>
       </c>
+      <c r="E59" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>32370.799999999999</v>
+      </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="10">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="24">
         <v>124301500000</v>
       </c>
       <c r="B60" s="20" t="s">
@@ -45354,14 +46446,18 @@
       <c r="C60" s="9">
         <v>1</v>
       </c>
-      <c r="D60" s="11" cm="1">
+      <c r="D60" s="9" cm="1">
         <f t="array" ref="D60">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A60),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>67456.399999999994</v>
       </c>
+      <c r="E60" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>67456.399999999994</v>
+      </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="10">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="24">
         <v>400500500068</v>
       </c>
       <c r="B61" s="20" t="s">
@@ -45370,14 +46466,18 @@
       <c r="C61" s="9">
         <v>1</v>
       </c>
-      <c r="D61" s="11" cm="1">
+      <c r="D61" s="9" cm="1">
         <f t="array" ref="D61">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A61),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>16000</v>
       </c>
+      <c r="E61" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>16000</v>
+      </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="10">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="24">
         <v>42201001190</v>
       </c>
       <c r="B62" s="20" t="s">
@@ -45386,14 +46486,18 @@
       <c r="C62" s="9">
         <v>1</v>
       </c>
-      <c r="D62" s="11" cm="1">
+      <c r="D62" s="9" cm="1">
         <f t="array" ref="D62">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A62),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>124.090538</v>
       </c>
+      <c r="E62" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>124.090538</v>
+      </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="10">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="24">
         <v>504215079000</v>
       </c>
       <c r="B63" s="20" t="s">
@@ -45402,14 +46506,18 @@
       <c r="C63" s="9">
         <v>1</v>
       </c>
-      <c r="D63" s="11" cm="1">
+      <c r="D63" s="9" cm="1">
         <f t="array" ref="D63">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A63),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>936150</v>
       </c>
+      <c r="E63" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>936150</v>
+      </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="10">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
         <v>34000420342</v>
       </c>
       <c r="B64" s="20" t="s">
@@ -45418,14 +46526,18 @@
       <c r="C64" s="9">
         <v>1</v>
       </c>
-      <c r="D64" s="11" cm="1">
+      <c r="D64" s="9" cm="1">
         <f t="array" ref="D64">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A64),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>11000</v>
       </c>
+      <c r="E64" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>11000</v>
+      </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="10">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="24">
         <v>32404002010</v>
       </c>
       <c r="B65" s="20" t="s">
@@ -45434,14 +46546,18 @@
       <c r="C65" s="9">
         <v>1</v>
       </c>
-      <c r="D65" s="11" cm="1">
+      <c r="D65" s="9" cm="1">
         <f t="array" ref="D65">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A65),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>14760</v>
       </c>
+      <c r="E65" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>14760</v>
+      </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="10">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="24">
         <v>271921004221</v>
       </c>
       <c r="B66" s="20" t="s">
@@ -45450,14 +46566,18 @@
       <c r="C66" s="9">
         <v>1</v>
       </c>
-      <c r="D66" s="11" cm="1">
+      <c r="D66" s="9" cm="1">
         <f t="array" ref="D66">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A66),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>2600</v>
       </c>
+      <c r="E66" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>2600</v>
+      </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="10">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="24">
         <v>124300630001</v>
       </c>
       <c r="B67" s="20" t="s">
@@ -45466,14 +46586,18 @@
       <c r="C67" s="9">
         <v>1</v>
       </c>
-      <c r="D67" s="11" cm="1">
+      <c r="D67" s="9" cm="1">
         <f t="array" ref="D67">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A67),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>6500</v>
       </c>
+      <c r="E67" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>6500</v>
+      </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="10">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="24">
         <v>84607000001</v>
       </c>
       <c r="B68" s="20" t="s">
@@ -45482,14 +46606,18 @@
       <c r="C68" s="9">
         <v>1</v>
       </c>
-      <c r="D68" s="11" cm="1">
+      <c r="D68" s="9" cm="1">
         <f t="array" ref="D68">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A68),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>94.08</v>
       </c>
+      <c r="E68" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>94.08</v>
+      </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="10">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="24">
         <v>42200601190</v>
       </c>
       <c r="B69" s="20" t="s">
@@ -45498,14 +46626,18 @@
       <c r="C69" s="9">
         <v>1</v>
       </c>
-      <c r="D69" s="11" cm="1">
+      <c r="D69" s="9" cm="1">
         <f t="array" ref="D69">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A69),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>159</v>
       </c>
+      <c r="E69" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>159</v>
+      </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="10">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="24">
         <v>325701000065</v>
       </c>
       <c r="B70" s="20" t="s">
@@ -45514,14 +46646,18 @@
       <c r="C70" s="9">
         <v>1</v>
       </c>
-      <c r="D70" s="11" cm="1">
+      <c r="D70" s="9" cm="1">
         <f t="array" ref="D70">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A70),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>408500</v>
       </c>
+      <c r="E70" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>408500</v>
+      </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="10">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="24">
         <v>325703000022</v>
       </c>
       <c r="B71" s="20" t="s">
@@ -45530,14 +46666,18 @@
       <c r="C71" s="9">
         <v>1</v>
       </c>
-      <c r="D71" s="11" cm="1">
+      <c r="D71" s="9" cm="1">
         <f t="array" ref="D71">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A71),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>192678</v>
       </c>
+      <c r="E71" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>192678</v>
+      </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="10">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="24">
         <v>271921004218</v>
       </c>
       <c r="B72" s="20" t="s">
@@ -45546,14 +46686,18 @@
       <c r="C72" s="9">
         <v>1</v>
       </c>
-      <c r="D72" s="11" cm="1">
+      <c r="D72" s="9" cm="1">
         <f t="array" ref="D72">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A72),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>2600</v>
       </c>
+      <c r="E72" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>2600</v>
+      </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="10">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="24">
         <v>280300633200</v>
       </c>
       <c r="B73" s="20" t="s">
@@ -45562,14 +46706,18 @@
       <c r="C73" s="9">
         <v>1</v>
       </c>
-      <c r="D73" s="11" cm="1">
+      <c r="D73" s="9" cm="1">
         <f t="array" ref="D73">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A73),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>2531</v>
       </c>
+      <c r="E73" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>2531</v>
+      </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="10">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="24">
         <v>325703000029</v>
       </c>
       <c r="B74" s="20" t="s">
@@ -45578,14 +46726,18 @@
       <c r="C74" s="9">
         <v>1</v>
       </c>
-      <c r="D74" s="11" cm="1">
+      <c r="D74" s="9" cm="1">
         <f t="array" ref="D74">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A74),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>158475</v>
       </c>
+      <c r="E74" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>158475</v>
+      </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="10">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="24">
         <v>325703000035</v>
       </c>
       <c r="B75" s="20" t="s">
@@ -45594,14 +46746,18 @@
       <c r="C75" s="9">
         <v>1</v>
       </c>
-      <c r="D75" s="11" cm="1">
+      <c r="D75" s="9" cm="1">
         <f t="array" ref="D75">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A75),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>307150</v>
       </c>
+      <c r="E75" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>307150</v>
+      </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="10">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="24">
         <v>402001000938</v>
       </c>
       <c r="B76" s="20" t="s">
@@ -45610,14 +46766,18 @@
       <c r="C76" s="9">
         <v>1</v>
       </c>
-      <c r="D76" s="11" cm="1">
+      <c r="D76" s="9" cm="1">
         <f t="array" ref="D76">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A76),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>48523</v>
       </c>
+      <c r="E76" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>48523</v>
+      </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="10">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="24">
         <v>34000420321</v>
       </c>
       <c r="B77" s="20" t="s">
@@ -45626,14 +46786,18 @@
       <c r="C77" s="9">
         <v>1</v>
       </c>
-      <c r="D77" s="11" cm="1">
+      <c r="D77" s="9" cm="1">
         <f t="array" ref="D77">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A77),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>10062</v>
       </c>
+      <c r="E77" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>10062</v>
+      </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="10">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="24">
         <v>325723000002</v>
       </c>
       <c r="B78" s="20" t="s">
@@ -45642,14 +46806,18 @@
       <c r="C78" s="9">
         <v>1</v>
       </c>
-      <c r="D78" s="11" cm="1">
+      <c r="D78" s="9" cm="1">
         <f t="array" ref="D78">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A78),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>5570.4</v>
       </c>
+      <c r="E78" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>5570.4</v>
+      </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="10">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="24">
         <v>325721000028</v>
       </c>
       <c r="B79" s="20" t="s">
@@ -45658,14 +46826,18 @@
       <c r="C79" s="9">
         <v>1</v>
       </c>
-      <c r="D79" s="11" cm="1">
+      <c r="D79" s="9" cm="1">
         <f t="array" ref="D79">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A79),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>30389</v>
       </c>
+      <c r="E79" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>30389</v>
+      </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="10">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="24">
         <v>34000260335</v>
       </c>
       <c r="B80" s="20" t="s">
@@ -45674,14 +46846,18 @@
       <c r="C80" s="9">
         <v>1</v>
       </c>
-      <c r="D80" s="11" cm="1">
+      <c r="D80" s="9" cm="1">
         <f t="array" ref="D80">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A80),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>6600</v>
       </c>
+      <c r="E80" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>6600</v>
+      </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="10">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="24">
         <v>32402601800</v>
       </c>
       <c r="B81" s="20" t="s">
@@ -45690,14 +46866,18 @@
       <c r="C81" s="9">
         <v>1</v>
       </c>
-      <c r="D81" s="11" cm="1">
+      <c r="D81" s="9" cm="1">
         <f t="array" ref="D81">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A81),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>4500</v>
       </c>
+      <c r="E81" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>4500</v>
+      </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="10">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="24">
         <v>271921002614</v>
       </c>
       <c r="B82" s="20" t="s">
@@ -45706,14 +46886,18 @@
       <c r="C82" s="9">
         <v>1</v>
       </c>
-      <c r="D82" s="11" cm="1">
+      <c r="D82" s="9" cm="1">
         <f t="array" ref="D82">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A82),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>2000</v>
       </c>
+      <c r="E82" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>2000</v>
+      </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="10">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="24">
         <v>325721000056</v>
       </c>
       <c r="B83" s="20" t="s">
@@ -45722,23 +46906,31 @@
       <c r="C83" s="9">
         <v>1</v>
       </c>
-      <c r="D83" s="11" cm="1">
+      <c r="D83" s="9" cm="1">
         <f t="array" ref="D83">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A83),
          [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
         <v>8500</v>
       </c>
+      <c r="E83" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
+        <v>8500</v>
+      </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="15" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="16">
+      <c r="C84" s="9">
         <v>1</v>
       </c>
-      <c r="D84" s="17">
+      <c r="D84" s="9">
+        <v>0</v>
+      </c>
+      <c r="E84" s="9">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[LP]]</f>
         <v>0</v>
       </c>
     </row>
@@ -45749,4 +46941,5638 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41E859C-2C42-464D-80A4-C0F3F322C10B}">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="159.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
+        <v>850000200000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" cm="1">
+        <f t="array" ref="D2">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A2),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>692010.34089999995</v>
+      </c>
+      <c r="E2">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>692010.34089999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
+        <v>325720000000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" cm="1">
+        <f t="array" ref="D3">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A3),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>75131.8</v>
+      </c>
+      <c r="E3">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>75131.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
+        <v>325721000001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" cm="1">
+        <f t="array" ref="D4">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A4),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>140833</v>
+      </c>
+      <c r="E4">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>140833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
+        <v>325703000018</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" cm="1">
+        <f t="array" ref="D5">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A5),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>194678</v>
+      </c>
+      <c r="E5">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>194678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
+        <v>325723000002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" cm="1">
+        <f t="array" ref="D6">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A6),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>5570.4</v>
+      </c>
+      <c r="E6">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>5570.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
+        <v>325705000003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" cm="1">
+        <f t="array" ref="D7">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A7),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>557840.80000000005</v>
+      </c>
+      <c r="E7">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>557840.80000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <v>325703000000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" cm="1">
+        <f t="array" ref="D8">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A8),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>15411</v>
+      </c>
+      <c r="E8">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>30822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
+        <v>325707000003</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" cm="1">
+        <f t="array" ref="D9">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A9),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>114961</v>
+      </c>
+      <c r="E9">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>114961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
+        <v>325707000005</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" cm="1">
+        <f t="array" ref="D10">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A10),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>122061.34600000001</v>
+      </c>
+      <c r="E10">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>122061.34600000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
+        <v>125004000018</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" cm="1">
+        <f t="array" ref="D11">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A11),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>5253.6</v>
+      </c>
+      <c r="E11">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>21014.400000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
+        <v>125004000037</v>
+      </c>
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" cm="1">
+        <f t="array" ref="D12">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A12),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>6279</v>
+      </c>
+      <c r="E12">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>25116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
+        <v>125300000126</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" cm="1">
+        <f t="array" ref="D13">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A13),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>64767</v>
+      </c>
+      <c r="E13">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>259068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
+        <v>492100639040</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" cm="1">
+        <f t="array" ref="D14">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A14),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>42702</v>
+      </c>
+      <c r="E14">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
+        <v>325705000033</v>
+      </c>
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" cm="1">
+        <f t="array" ref="D15">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A15),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>13050</v>
+      </c>
+      <c r="E15">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>39150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
+        <v>325715000000</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" cm="1">
+        <f t="array" ref="D16">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A16),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>11220</v>
+      </c>
+      <c r="E16">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>11220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
+        <v>325715000001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" cm="1">
+        <f t="array" ref="D17">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A17),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>31640.400000000001</v>
+      </c>
+      <c r="E17">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>31640.400000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
+        <v>325715000002</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" cm="1">
+        <f t="array" ref="D18">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A18),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>37620</v>
+      </c>
+      <c r="E18">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>37620</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
+        <v>325715000003</v>
+      </c>
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" cm="1">
+        <f t="array" ref="D19">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A19),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>97608</v>
+      </c>
+      <c r="E19">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>97608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
+        <v>170893010359</v>
+      </c>
+      <c r="B20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" cm="1">
+        <f t="array" ref="D20">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A20),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>240</v>
+      </c>
+      <c r="E20">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="23">
+        <v>340101070019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" cm="1">
+        <f t="array" ref="D21">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A21),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>2562</v>
+      </c>
+      <c r="E21">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
+        <v>325705000104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="23">
+        <v>325724220200</v>
+      </c>
+      <c r="B24" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" cm="1">
+        <f t="array" ref="D24">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A24),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>999470.33109999995</v>
+      </c>
+      <c r="E24">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>999470.33109999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="23">
+        <v>325720000036</v>
+      </c>
+      <c r="B25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" cm="1">
+        <f t="array" ref="D25">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A25),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>80890.600000000006</v>
+      </c>
+      <c r="E25">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>80890.600000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
+        <v>325705000118</v>
+      </c>
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" cm="1">
+        <f t="array" ref="D26">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A26),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>646775</v>
+      </c>
+      <c r="E26">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>646775</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="23">
+        <v>325701000110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" cm="1">
+        <f t="array" ref="D27">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A27),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>113407.8</v>
+      </c>
+      <c r="E27">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>113407.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="23">
+        <v>325720000002</v>
+      </c>
+      <c r="B28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" cm="1">
+        <f t="array" ref="D28">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A28),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>157505.04</v>
+      </c>
+      <c r="E28">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>157505.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="23">
+        <v>325705000165</v>
+      </c>
+      <c r="B29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" cm="1">
+        <f t="array" ref="D29">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A29),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>753887.5</v>
+      </c>
+      <c r="E29">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>753887.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
+        <v>325705000073</v>
+      </c>
+      <c r="B30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" cm="1">
+        <f t="array" ref="D30">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A30),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>103510</v>
+      </c>
+      <c r="E30">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>103510</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="23">
+        <v>325720000072</v>
+      </c>
+      <c r="B31" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" cm="1">
+        <f t="array" ref="D31">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A31),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>108711.8</v>
+      </c>
+      <c r="E31">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>108711.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="23">
+        <v>743003600037</v>
+      </c>
+      <c r="B32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" cm="1">
+        <f t="array" ref="D32">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A32),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>84290</v>
+      </c>
+      <c r="E32">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>84290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="23">
+        <v>402001000474</v>
+      </c>
+      <c r="B33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" cm="1">
+        <f t="array" ref="D33">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A33),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>167960</v>
+      </c>
+      <c r="E33">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>167960</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="23">
+        <v>850000200005</v>
+      </c>
+      <c r="B34" t="s">
+        <v>245</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" cm="1">
+        <f t="array" ref="D34">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A34),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>1138500</v>
+      </c>
+      <c r="E34">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>1138500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="23">
+        <v>402001000693</v>
+      </c>
+      <c r="B35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" cm="1">
+        <f t="array" ref="D35">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A35),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>47170</v>
+      </c>
+      <c r="E35">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>47170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="23">
+        <v>274095002500</v>
+      </c>
+      <c r="B36" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" cm="1">
+        <f t="array" ref="D36">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A36),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>6063.2</v>
+      </c>
+      <c r="E36">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>6063.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="23">
+        <v>274040000000</v>
+      </c>
+      <c r="B37" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" cm="1">
+        <f t="array" ref="D37">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A37),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>12000</v>
+      </c>
+      <c r="E37">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="23">
+        <v>274040000001</v>
+      </c>
+      <c r="B38" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" cm="1">
+        <f t="array" ref="D38">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A38),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>1766.6</v>
+      </c>
+      <c r="E38">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>1766.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="23">
+        <v>125004000055</v>
+      </c>
+      <c r="B39" t="s">
+        <v>250</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" cm="1">
+        <f t="array" ref="D39">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A39),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>14593.5</v>
+      </c>
+      <c r="E39">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>14593.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="23">
+        <v>325703000028</v>
+      </c>
+      <c r="B40" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" cm="1">
+        <f t="array" ref="D40">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A40),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>150880</v>
+      </c>
+      <c r="E40">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>150880</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="23">
+        <v>325707000130</v>
+      </c>
+      <c r="B41" t="s">
+        <v>252</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" cm="1">
+        <f t="array" ref="D41">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A41),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>169350</v>
+      </c>
+      <c r="E41">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>169350</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="23">
+        <v>850000300003</v>
+      </c>
+      <c r="B42" t="s">
+        <v>253</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" cm="1">
+        <f t="array" ref="D42">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A42),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>1550750</v>
+      </c>
+      <c r="E42">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>1550750</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="23">
+        <v>325702000029</v>
+      </c>
+      <c r="B43" t="s">
+        <v>254</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" cm="1">
+        <f t="array" ref="D43">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A43),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>920</v>
+      </c>
+      <c r="E43">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>920</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="23">
+        <v>325705000278</v>
+      </c>
+      <c r="B44" t="s">
+        <v>255</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" cm="1">
+        <f t="array" ref="D44">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A44),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>81290</v>
+      </c>
+      <c r="E44">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>81290</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="23">
+        <v>325721000010</v>
+      </c>
+      <c r="B45" t="s">
+        <v>256</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" cm="1">
+        <f t="array" ref="D45">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A45),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>80888</v>
+      </c>
+      <c r="E45">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>80888</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="23">
+        <v>325711000334</v>
+      </c>
+      <c r="B46" t="s">
+        <v>257</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" cm="1">
+        <f t="array" ref="D46">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A46),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>492</v>
+      </c>
+      <c r="E46">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="23">
+        <v>325706000115</v>
+      </c>
+      <c r="B47" t="s">
+        <v>258</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" cm="1">
+        <f t="array" ref="D47">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A47),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>33000</v>
+      </c>
+      <c r="E47">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E6AB16-4EE8-451F-80F0-7E80A39F6B57}">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="159.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>850000200000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" cm="1">
+        <f t="array" ref="D2">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A2),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>692010.34089999995</v>
+      </c>
+      <c r="E2">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>692010.34089999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>325721000004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" cm="1">
+        <f t="array" ref="D3">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A3),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>294921</v>
+      </c>
+      <c r="E3">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>294921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>325721000000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" cm="1">
+        <f t="array" ref="D4">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A4),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>204053</v>
+      </c>
+      <c r="E4">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>204053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>325721000001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" cm="1">
+        <f t="array" ref="D5">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A5),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>140833</v>
+      </c>
+      <c r="E5">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>140833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>325703000018</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" cm="1">
+        <f t="array" ref="D6">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A6),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>194678</v>
+      </c>
+      <c r="E6">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>194678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>325723000002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" cm="1">
+        <f t="array" ref="D7">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A7),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>5570.4</v>
+      </c>
+      <c r="E7">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>5570.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>325705000003</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" cm="1">
+        <f t="array" ref="D8">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A8),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>557840.80000000005</v>
+      </c>
+      <c r="E8">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>557840.80000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>325703000000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" cm="1">
+        <f t="array" ref="D9">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A9),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>15411</v>
+      </c>
+      <c r="E9">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>30822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>325722000004</v>
+      </c>
+      <c r="B10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" cm="1">
+        <f t="array" ref="D10">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A10),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>481507.4</v>
+      </c>
+      <c r="E10">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>963014.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>325722000005</v>
+      </c>
+      <c r="B11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" cm="1">
+        <f t="array" ref="D11">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A11),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>663280.19999999995</v>
+      </c>
+      <c r="E11">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>1326560.3999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>325707000003</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" cm="1">
+        <f t="array" ref="D12">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A12),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>114961</v>
+      </c>
+      <c r="E12">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>114961</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>325707000005</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" cm="1">
+        <f t="array" ref="D13">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A13),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>122061.34600000001</v>
+      </c>
+      <c r="E13">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>122061.34600000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>125004000018</v>
+      </c>
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" cm="1">
+        <f t="array" ref="D14">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A14),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>5253.6</v>
+      </c>
+      <c r="E14">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>21014.400000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>125004000037</v>
+      </c>
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" cm="1">
+        <f t="array" ref="D15">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A15),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>6279</v>
+      </c>
+      <c r="E15">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>25116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>125300000126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" cm="1">
+        <f t="array" ref="D16">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A16),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>64767</v>
+      </c>
+      <c r="E16">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>259068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>492100639040</v>
+      </c>
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" cm="1">
+        <f t="array" ref="D17">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A17),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>42702</v>
+      </c>
+      <c r="E17">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>325705000033</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" cm="1">
+        <f t="array" ref="D18">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A18),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>13050</v>
+      </c>
+      <c r="E18">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>39150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>325715000000</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" cm="1">
+        <f t="array" ref="D19">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A19),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>11220</v>
+      </c>
+      <c r="E19">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>11220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>325715000001</v>
+      </c>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" cm="1">
+        <f t="array" ref="D20">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A20),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>31640.400000000001</v>
+      </c>
+      <c r="E20">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>31640.400000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>325715000002</v>
+      </c>
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" cm="1">
+        <f t="array" ref="D21">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A21),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>37620</v>
+      </c>
+      <c r="E21">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>37620</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>325715000003</v>
+      </c>
+      <c r="B22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" cm="1">
+        <f t="array" ref="D22">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A22),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>97608</v>
+      </c>
+      <c r="E22">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>97608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>170893010359</v>
+      </c>
+      <c r="B23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" cm="1">
+        <f t="array" ref="D23">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A23),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>240</v>
+      </c>
+      <c r="E23">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>340101070019</v>
+      </c>
+      <c r="B24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" cm="1">
+        <f t="array" ref="D24">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A24),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>2562</v>
+      </c>
+      <c r="E24">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>325705000104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>325724220203</v>
+      </c>
+      <c r="B27" t="s">
+        <v>265</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" cm="1">
+        <f t="array" ref="D27">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A27),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>1375000</v>
+      </c>
+      <c r="E27">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>1375000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>325720000036</v>
+      </c>
+      <c r="B28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" cm="1">
+        <f t="array" ref="D28">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A28),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>80890.600000000006</v>
+      </c>
+      <c r="E28">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>80890.600000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>325705000118</v>
+      </c>
+      <c r="B29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" cm="1">
+        <f t="array" ref="D29">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A29),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>646775</v>
+      </c>
+      <c r="E29">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>646775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>325701000110</v>
+      </c>
+      <c r="B30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" cm="1">
+        <f t="array" ref="D30">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A30),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>113407.8</v>
+      </c>
+      <c r="E30">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>113407.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>325720000002</v>
+      </c>
+      <c r="B31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" cm="1">
+        <f t="array" ref="D31">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A31),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>157505.04</v>
+      </c>
+      <c r="E31">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>157505.04</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>325705000165</v>
+      </c>
+      <c r="B32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" cm="1">
+        <f t="array" ref="D32">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A32),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>753887.5</v>
+      </c>
+      <c r="E32">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>753887.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>325705000073</v>
+      </c>
+      <c r="B33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" cm="1">
+        <f t="array" ref="D33">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A33),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>103510</v>
+      </c>
+      <c r="E33">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>103510</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>325720000072</v>
+      </c>
+      <c r="B34" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" cm="1">
+        <f t="array" ref="D34">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A34),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>108711.8</v>
+      </c>
+      <c r="E34">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>108711.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>850000250000</v>
+      </c>
+      <c r="B35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" cm="1">
+        <f t="array" ref="D35">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A35),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>1570000</v>
+      </c>
+      <c r="E35">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>1570000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>325703000029</v>
+      </c>
+      <c r="B36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" cm="1">
+        <f t="array" ref="D36">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A36),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>158475</v>
+      </c>
+      <c r="E36">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>158475</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>325707000130</v>
+      </c>
+      <c r="B37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" cm="1">
+        <f t="array" ref="D37">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A37),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>169350</v>
+      </c>
+      <c r="E37">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>169350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>325712000004</v>
+      </c>
+      <c r="B38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" cm="1">
+        <f t="array" ref="D38">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A38),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>63993.599999999999</v>
+      </c>
+      <c r="E38">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>63993.599999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>325706000114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" cm="1">
+        <f t="array" ref="D39">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A39),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>3750</v>
+      </c>
+      <c r="E39">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
+        <v>325706000046</v>
+      </c>
+      <c r="B40" t="s">
+        <v>268</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" cm="1">
+        <f t="array" ref="D40">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A40),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>1573</v>
+      </c>
+      <c r="E40">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>125300000204</v>
+      </c>
+      <c r="B41" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" cm="1">
+        <f t="array" ref="D41">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A41),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>2190</v>
+      </c>
+      <c r="E41">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
+        <v>125004000055</v>
+      </c>
+      <c r="B42" t="s">
+        <v>250</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" cm="1">
+        <f t="array" ref="D42">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A42),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>14593.5</v>
+      </c>
+      <c r="E42">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>14593.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
+        <v>325721000028</v>
+      </c>
+      <c r="B43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" cm="1">
+        <f t="array" ref="D43">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A43),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>30389</v>
+      </c>
+      <c r="E43">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>30389</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f>Table5[[#This Row],[Quantity]]*Table5[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7958AEBB-BA39-4E2A-B623-A6FAC5F4381B}">
+  <dimension ref="A1:E96"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="167.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>850000200000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11" cm="1">
+        <f t="array" ref="D2">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A2),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>692010.34089999995</v>
+      </c>
+      <c r="E2">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>1384020.6817999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>325720000000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" cm="1">
+        <f t="array" ref="D3">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A3),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>75131.8</v>
+      </c>
+      <c r="E3">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>75131.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>325721000001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" cm="1">
+        <f t="array" ref="D4">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A4),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>140833</v>
+      </c>
+      <c r="E4">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>140833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>325703000017</v>
+      </c>
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" cm="1">
+        <f t="array" ref="D5">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A5),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>386203</v>
+      </c>
+      <c r="E5">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>386203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>325723000000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" cm="1">
+        <f t="array" ref="D6">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A6),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>6683.6</v>
+      </c>
+      <c r="E6">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>6683.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>325705000003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" cm="1">
+        <f t="array" ref="D7">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A7),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>557840.80000000005</v>
+      </c>
+      <c r="E7">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>557840.80000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>325707000003</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" cm="1">
+        <f t="array" ref="D8">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A8),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>114961</v>
+      </c>
+      <c r="E8">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>114961</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>325707000005</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" cm="1">
+        <f t="array" ref="D9">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A9),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>122061.34600000001</v>
+      </c>
+      <c r="E9">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>122061.34600000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>125004000018</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" cm="1">
+        <f t="array" ref="D10">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A10),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>5253.6</v>
+      </c>
+      <c r="E10">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>21014.400000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>125004000037</v>
+      </c>
+      <c r="B11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" cm="1">
+        <f t="array" ref="D11">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A11),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>6279</v>
+      </c>
+      <c r="E11">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>25116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>125300000126</v>
+      </c>
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" cm="1">
+        <f t="array" ref="D12">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A12),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>64767</v>
+      </c>
+      <c r="E12">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>259068</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>492100639040</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" cm="1">
+        <f t="array" ref="D13">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A13),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>42702</v>
+      </c>
+      <c r="E13">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>325705000033</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" cm="1">
+        <f t="array" ref="D14">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A14),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>13050</v>
+      </c>
+      <c r="E14">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>39150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>325715000000</v>
+      </c>
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" cm="1">
+        <f t="array" ref="D15">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A15),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>11220</v>
+      </c>
+      <c r="E15">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>11220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>325715000001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" cm="1">
+        <f t="array" ref="D16">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A16),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>31640.400000000001</v>
+      </c>
+      <c r="E16">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>31640.400000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>325715000002</v>
+      </c>
+      <c r="B17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" cm="1">
+        <f t="array" ref="D17">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A17),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>37620</v>
+      </c>
+      <c r="E17">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>37620</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>325715000003</v>
+      </c>
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" cm="1">
+        <f t="array" ref="D18">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A18),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>97608</v>
+      </c>
+      <c r="E18">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>97608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>170893010359</v>
+      </c>
+      <c r="B19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" cm="1">
+        <f t="array" ref="D19">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A19),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>240</v>
+      </c>
+      <c r="E19">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>340101070019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" cm="1">
+        <f t="array" ref="D20">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A20),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>2562</v>
+      </c>
+      <c r="E20">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>325705000104</v>
+      </c>
+      <c r="B21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>325724220201</v>
+      </c>
+      <c r="B22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" cm="1">
+        <f t="array" ref="D22">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A22),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>1711292.2290000001</v>
+      </c>
+      <c r="E22">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>1711292.2290000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>325703000022</v>
+      </c>
+      <c r="B23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" cm="1">
+        <f t="array" ref="D23">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A23),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>192678</v>
+      </c>
+      <c r="E23">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>192678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" cm="1">
+        <f t="array" ref="D24">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A24),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B25" t="s">
+        <v>272</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" cm="1">
+        <f t="array" ref="D25">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A25),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B26" t="s">
+        <v>273</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" cm="1">
+        <f t="array" ref="D26">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A26),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>274046020000</v>
+      </c>
+      <c r="B27" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" cm="1">
+        <f t="array" ref="D27">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A27),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>486492.70610000001</v>
+      </c>
+      <c r="E27">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>486492.70610000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>274015020002</v>
+      </c>
+      <c r="B28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" cm="1">
+        <f t="array" ref="D28">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A28),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>50750.347999999998</v>
+      </c>
+      <c r="E28">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>50750.347999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>274006102004</v>
+      </c>
+      <c r="B29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" cm="1">
+        <f t="array" ref="D29">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A29),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>35208.095999999998</v>
+      </c>
+      <c r="E29">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>35208.095999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>400500500072</v>
+      </c>
+      <c r="B30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" cm="1">
+        <f t="array" ref="D30">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A30),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>9637.9896929999995</v>
+      </c>
+      <c r="E30">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>9637.9896929999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>274018002000</v>
+      </c>
+      <c r="B31" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" cm="1">
+        <f t="array" ref="D31">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A31),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>13789.6</v>
+      </c>
+      <c r="E31">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>13789.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>274015020001</v>
+      </c>
+      <c r="B32" t="s">
+        <v>279</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" cm="1">
+        <f t="array" ref="D32">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A32),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>41432.6</v>
+      </c>
+      <c r="E32">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>41432.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>274300400004</v>
+      </c>
+      <c r="B33" t="s">
+        <v>280</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" cm="1">
+        <f t="array" ref="D33">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A33),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>4996.2</v>
+      </c>
+      <c r="E33">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>4996.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>274003204306</v>
+      </c>
+      <c r="B34" t="s">
+        <v>281</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" cm="1">
+        <f t="array" ref="D34">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A34),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>108046.39999999999</v>
+      </c>
+      <c r="E34">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>108046.39999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>325720000036</v>
+      </c>
+      <c r="B35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" cm="1">
+        <f t="array" ref="D35">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A35),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>80890.600000000006</v>
+      </c>
+      <c r="E35">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>80890.600000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>325707000072</v>
+      </c>
+      <c r="B36" t="s">
+        <v>282</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" cm="1">
+        <f t="array" ref="D36">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A36),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>130000</v>
+      </c>
+      <c r="E36">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>325707000073</v>
+      </c>
+      <c r="B37" t="s">
+        <v>283</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" cm="1">
+        <f t="array" ref="D37">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A37),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>115000</v>
+      </c>
+      <c r="E37">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>325705000118</v>
+      </c>
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" cm="1">
+        <f t="array" ref="D38">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A38),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>646775</v>
+      </c>
+      <c r="E38">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>646775</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>325707000070</v>
+      </c>
+      <c r="B39" t="s">
+        <v>284</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" cm="1">
+        <f t="array" ref="D39">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A39),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>151000</v>
+      </c>
+      <c r="E39">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>151000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
+        <v>34000260305</v>
+      </c>
+      <c r="B40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" cm="1">
+        <f t="array" ref="D40">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A40),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>3982</v>
+      </c>
+      <c r="E40">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>325712000011</v>
+      </c>
+      <c r="B41" t="s">
+        <v>285</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" cm="1">
+        <f t="array" ref="D41">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A41),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>6234</v>
+      </c>
+      <c r="E41">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>6234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
+        <v>271921002620</v>
+      </c>
+      <c r="B42" t="s">
+        <v>286</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
+        <v>241121040008</v>
+      </c>
+      <c r="B43" t="s">
+        <v>287</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" cm="1">
+        <f t="array" ref="D43">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A43),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>39</v>
+      </c>
+      <c r="E43">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
+        <v>2351786</v>
+      </c>
+      <c r="B44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" cm="1">
+        <f t="array" ref="D44">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A44),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>2200</v>
+      </c>
+      <c r="E44">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>2354061</v>
+      </c>
+      <c r="B45" t="s">
+        <v>288</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" cm="1">
+        <f t="array" ref="D45">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A45),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>3994.5839999999998</v>
+      </c>
+      <c r="E45">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>3994.5839999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>882733040000</v>
+      </c>
+      <c r="B46" t="s">
+        <v>289</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" cm="1">
+        <f t="array" ref="D46">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A46),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>332662.40700000001</v>
+      </c>
+      <c r="E46">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>332662.40700000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
+        <v>124301250000</v>
+      </c>
+      <c r="B47" t="s">
+        <v>290</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" cm="1">
+        <f t="array" ref="D47">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A47),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>21034</v>
+      </c>
+      <c r="E47">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>21034</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
+        <v>42201601190</v>
+      </c>
+      <c r="B48" t="s">
+        <v>291</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" cm="1">
+        <f t="array" ref="D48">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A48),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>173.8</v>
+      </c>
+      <c r="E48">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>173.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
+        <v>325701000110</v>
+      </c>
+      <c r="B50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" cm="1">
+        <f t="array" ref="D50">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A50),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>113407.8</v>
+      </c>
+      <c r="E50">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>113407.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
+        <v>325720000002</v>
+      </c>
+      <c r="B51" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" cm="1">
+        <f t="array" ref="D51">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A51),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>157505.04</v>
+      </c>
+      <c r="E51">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>157505.04</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="8">
+        <v>325705000165</v>
+      </c>
+      <c r="B52" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" cm="1">
+        <f t="array" ref="D52">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A52),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>753887.5</v>
+      </c>
+      <c r="E52">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>753887.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
+        <v>325705000073</v>
+      </c>
+      <c r="B53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" cm="1">
+        <f t="array" ref="D53">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A53),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>103510</v>
+      </c>
+      <c r="E53">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>103510</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>325720000072</v>
+      </c>
+      <c r="B54" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" cm="1">
+        <f t="array" ref="D54">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A54),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>108711.8</v>
+      </c>
+      <c r="E54">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>108711.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
+        <v>402003000355</v>
+      </c>
+      <c r="B55" t="s">
+        <v>292</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" cm="1">
+        <f t="array" ref="D55">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A55),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>11484</v>
+      </c>
+      <c r="E55">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>11484</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>401600000004</v>
+      </c>
+      <c r="B56" t="s">
+        <v>293</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" cm="1">
+        <f t="array" ref="D56">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A56),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>4588</v>
+      </c>
+      <c r="E56">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
+        <v>2131054</v>
+      </c>
+      <c r="B57" t="s">
+        <v>294</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" cm="1">
+        <f t="array" ref="D57">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A57),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>5964.7049999999999</v>
+      </c>
+      <c r="E57">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>5964.7049999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>325707000019</v>
+      </c>
+      <c r="B58" t="s">
+        <v>295</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" cm="1">
+        <f t="array" ref="D58">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A58),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>120227.8</v>
+      </c>
+      <c r="E58">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>120227.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>325707000002</v>
+      </c>
+      <c r="B59" t="s">
+        <v>296</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" cm="1">
+        <f t="array" ref="D59">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A59),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>85826.62</v>
+      </c>
+      <c r="E59">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>85826.62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
+        <v>402003000238</v>
+      </c>
+      <c r="B60" t="s">
+        <v>297</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" cm="1">
+        <f t="array" ref="D60">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A60),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>10342.200000000001</v>
+      </c>
+      <c r="E60">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>10342.200000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
+        <v>2311757</v>
+      </c>
+      <c r="B61" t="s">
+        <v>298</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" cm="1">
+        <f t="array" ref="D61">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A61),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>4221.8</v>
+      </c>
+      <c r="E61">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>4221.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
+        <v>33010326</v>
+      </c>
+      <c r="B62" t="s">
+        <v>299</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" cm="1">
+        <f t="array" ref="D62">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A62),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>9659</v>
+      </c>
+      <c r="E62">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>9659</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <v>33010469</v>
+      </c>
+      <c r="B63" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" cm="1">
+        <f t="array" ref="D63">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A63),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>1590</v>
+      </c>
+      <c r="E63">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="8">
+        <v>402001000547</v>
+      </c>
+      <c r="B64" t="s">
+        <v>300</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" cm="1">
+        <f t="array" ref="D64">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A64),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>3622</v>
+      </c>
+      <c r="E64">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="8">
+        <v>325701000013</v>
+      </c>
+      <c r="B65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" cm="1">
+        <f t="array" ref="D65">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A65),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>84603.199999999997</v>
+      </c>
+      <c r="E65">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>84603.199999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
+        <v>325721000028</v>
+      </c>
+      <c r="B66" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" cm="1">
+        <f t="array" ref="D66">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A66),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>30389</v>
+      </c>
+      <c r="E66">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>30389</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="8">
+        <v>325705000209</v>
+      </c>
+      <c r="B67" t="s">
+        <v>301</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" cm="1">
+        <f t="array" ref="D67">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A67),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>57222</v>
+      </c>
+      <c r="E67">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>57222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="8">
+        <v>931604112491</v>
+      </c>
+      <c r="B68" t="s">
+        <v>302</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" cm="1">
+        <f t="array" ref="D68">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A68),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>441.142944</v>
+      </c>
+      <c r="E68">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>441.142944</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="8">
+        <v>850000200005</v>
+      </c>
+      <c r="B69" t="s">
+        <v>245</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" cm="1">
+        <f t="array" ref="D69">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A69),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>1138500</v>
+      </c>
+      <c r="E69">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>1138500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="8">
+        <v>325723000004</v>
+      </c>
+      <c r="B70" t="s">
+        <v>219</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" cm="1">
+        <f t="array" ref="D70">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A70),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>18285</v>
+      </c>
+      <c r="E70">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>18285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="8">
+        <v>402050030081</v>
+      </c>
+      <c r="B71" t="s">
+        <v>303</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" cm="1">
+        <f t="array" ref="D71">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A71),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>34554</v>
+      </c>
+      <c r="E71">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>34554</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
+        <v>122310000075</v>
+      </c>
+      <c r="B72" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" cm="1">
+        <f t="array" ref="D72">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A72),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>19399.599999999999</v>
+      </c>
+      <c r="E72">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>19399.599999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="8">
+        <v>2312280</v>
+      </c>
+      <c r="B73" t="s">
+        <v>304</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" cm="1">
+        <f t="array" ref="D73">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A73),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>14394</v>
+      </c>
+      <c r="E73">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>14394</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="8">
+        <v>325702000060</v>
+      </c>
+      <c r="B74" t="s">
+        <v>305</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" cm="1">
+        <f t="array" ref="D74">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A74),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>19276</v>
+      </c>
+      <c r="E74">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>19276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="8">
+        <v>325723000056</v>
+      </c>
+      <c r="B75" t="s">
+        <v>306</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" cm="1">
+        <f t="array" ref="D75">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A75),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>70099</v>
+      </c>
+      <c r="E75">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>70099</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
+        <v>325701000124</v>
+      </c>
+      <c r="B76" t="s">
+        <v>307</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" cm="1">
+        <f t="array" ref="D76">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A76),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>213945.60000000001</v>
+      </c>
+      <c r="E76">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>213945.60000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
+        <v>325701000178</v>
+      </c>
+      <c r="B77" t="s">
+        <v>308</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" cm="1">
+        <f t="array" ref="D77">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A77),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>96000</v>
+      </c>
+      <c r="E77">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="8">
+        <v>325711000407</v>
+      </c>
+      <c r="B78" t="s">
+        <v>309</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" cm="1">
+        <f t="array" ref="D78">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A78),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>15500</v>
+      </c>
+      <c r="E78">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="8">
+        <v>325703000021</v>
+      </c>
+      <c r="B79" t="s">
+        <v>197</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" cm="1">
+        <f t="array" ref="D79">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A79),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>164078</v>
+      </c>
+      <c r="E79">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>164078</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="8">
+        <v>325701000065</v>
+      </c>
+      <c r="B80" t="s">
+        <v>189</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" cm="1">
+        <f t="array" ref="D80">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A80),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>408500</v>
+      </c>
+      <c r="E80">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>408500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="8">
+        <v>325715000034</v>
+      </c>
+      <c r="B81" t="s">
+        <v>310</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" cm="1">
+        <f t="array" ref="D81">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A81),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>83790</v>
+      </c>
+      <c r="E81">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>83790</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="8">
+        <v>505102079030</v>
+      </c>
+      <c r="B82" t="s">
+        <v>311</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" cm="1">
+        <f t="array" ref="D82">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A82),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>222474</v>
+      </c>
+      <c r="E82">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>222474</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="8">
+        <v>271921010004</v>
+      </c>
+      <c r="B83" t="s">
+        <v>312</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" cm="1">
+        <f t="array" ref="D83">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A83),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>10197</v>
+      </c>
+      <c r="E83">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>10197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="8">
+        <v>324922020702</v>
+      </c>
+      <c r="B84" t="s">
+        <v>313</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" cm="1">
+        <f t="array" ref="D84">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A84),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>1350</v>
+      </c>
+      <c r="E84">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="8">
+        <v>42201001190</v>
+      </c>
+      <c r="B85" t="s">
+        <v>224</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" cm="1">
+        <f t="array" ref="D85">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A85),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>124.090538</v>
+      </c>
+      <c r="E85">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>124.090538</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="8">
+        <v>34001000332</v>
+      </c>
+      <c r="B86" t="s">
+        <v>314</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" cm="1">
+        <f t="array" ref="D86">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A86),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>19818.070769999998</v>
+      </c>
+      <c r="E86">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>19818.070769999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="8">
+        <v>325703000000</v>
+      </c>
+      <c r="B87" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" cm="1">
+        <f t="array" ref="D87">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A87),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>15411</v>
+      </c>
+      <c r="E87">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>15411</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="8">
+        <v>325723000050</v>
+      </c>
+      <c r="B88" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" cm="1">
+        <f t="array" ref="D88">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A88),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>68884</v>
+      </c>
+      <c r="E88">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>68884</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="8">
+        <v>402001000938</v>
+      </c>
+      <c r="B89" t="s">
+        <v>231</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" cm="1">
+        <f t="array" ref="D89">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A89),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>48523</v>
+      </c>
+      <c r="E89">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>48523</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B90" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="8">
+        <v>325703000028</v>
+      </c>
+      <c r="B91" t="s">
+        <v>251</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" cm="1">
+        <f t="array" ref="D91">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A91),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>150880</v>
+      </c>
+      <c r="E91">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>150880</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="8">
+        <v>325703000029</v>
+      </c>
+      <c r="B92" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" cm="1">
+        <f t="array" ref="D92">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A92),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>158475</v>
+      </c>
+      <c r="E92">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>158475</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="8">
+        <v>325723000002</v>
+      </c>
+      <c r="B93" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" cm="1">
+        <f t="array" ref="D93">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A93),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>5570.4</v>
+      </c>
+      <c r="E93">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>5570.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="8">
+        <v>325703000035</v>
+      </c>
+      <c r="B94" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" cm="1">
+        <f t="array" ref="D94">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A94),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>307150</v>
+      </c>
+      <c r="E94">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>307150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="8">
+        <v>325703000064</v>
+      </c>
+      <c r="B95" t="s">
+        <v>315</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" cm="1">
+        <f t="array" ref="D95">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A95),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>479761</v>
+      </c>
+      <c r="E95">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>479761</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="8">
+        <v>850000250000</v>
+      </c>
+      <c r="B96" t="s">
+        <v>266</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" cm="1">
+        <f t="array" ref="D96">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A96),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>1570000</v>
+      </c>
+      <c r="E96">
+        <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[LP]]</f>
+        <v>1570000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA0CFD6-2608-40D9-B98A-D7C7955D30A9}">
+  <dimension ref="A1:E91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="157.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>850000200000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11" cm="1">
+        <f t="array" ref="D2">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A2),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>692010.34089999995</v>
+      </c>
+      <c r="E2">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>1384020.6817999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>325721000004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" cm="1">
+        <f t="array" ref="D3">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A3),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>294921</v>
+      </c>
+      <c r="E3">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>294921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>325720000000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" cm="1">
+        <f t="array" ref="D4">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A4),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>75131.8</v>
+      </c>
+      <c r="E4">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>75131.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>325721000001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" cm="1">
+        <f t="array" ref="D5">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A5),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>140833</v>
+      </c>
+      <c r="E5">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>140833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>325703000017</v>
+      </c>
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" cm="1">
+        <f t="array" ref="D6">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A6),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>386203</v>
+      </c>
+      <c r="E6">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>386203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>325723000000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" cm="1">
+        <f t="array" ref="D7">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A7),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>6683.6</v>
+      </c>
+      <c r="E7">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>6683.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>325705000003</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" cm="1">
+        <f t="array" ref="D8">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A8),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>557840.80000000005</v>
+      </c>
+      <c r="E8">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>557840.80000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>325722000004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" cm="1">
+        <f t="array" ref="D9">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A9),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>481507.4</v>
+      </c>
+      <c r="E9">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>481507.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>325722000005</v>
+      </c>
+      <c r="B10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" cm="1">
+        <f t="array" ref="D10">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A10),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>663280.19999999995</v>
+      </c>
+      <c r="E10">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>663280.19999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>325707000003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" cm="1">
+        <f t="array" ref="D11">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A11),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>114961</v>
+      </c>
+      <c r="E11">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>114961</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>325707000005</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" cm="1">
+        <f t="array" ref="D12">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A12),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>122061.34600000001</v>
+      </c>
+      <c r="E12">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>122061.34600000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>125004000018</v>
+      </c>
+      <c r="B13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" cm="1">
+        <f t="array" ref="D13">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A13),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>5253.6</v>
+      </c>
+      <c r="E13">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>21014.400000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>125004000037</v>
+      </c>
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" cm="1">
+        <f t="array" ref="D14">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A14),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>6279</v>
+      </c>
+      <c r="E14">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>25116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>125300000126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" cm="1">
+        <f t="array" ref="D15">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A15),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>64767</v>
+      </c>
+      <c r="E15">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>259068</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>492100639040</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" cm="1">
+        <f t="array" ref="D16">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A16),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>42702</v>
+      </c>
+      <c r="E16">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>325705000033</v>
+      </c>
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" cm="1">
+        <f t="array" ref="D17">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A17),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>13050</v>
+      </c>
+      <c r="E17">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>39150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>325715000000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" cm="1">
+        <f t="array" ref="D18">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A18),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>11220</v>
+      </c>
+      <c r="E18">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>11220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>325715000001</v>
+      </c>
+      <c r="B19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" cm="1">
+        <f t="array" ref="D19">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A19),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>31640.400000000001</v>
+      </c>
+      <c r="E19">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>31640.400000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>325715000002</v>
+      </c>
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" cm="1">
+        <f t="array" ref="D20">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A20),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>37620</v>
+      </c>
+      <c r="E20">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>37620</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>325715000003</v>
+      </c>
+      <c r="B21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" cm="1">
+        <f t="array" ref="D21">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A21),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>97608</v>
+      </c>
+      <c r="E21">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>97608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>170893010359</v>
+      </c>
+      <c r="B22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" cm="1">
+        <f t="array" ref="D22">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A22),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>240</v>
+      </c>
+      <c r="E22">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>340101070019</v>
+      </c>
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" cm="1">
+        <f t="array" ref="D23">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A23),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>2562</v>
+      </c>
+      <c r="E23">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>325705000104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>325724220202</v>
+      </c>
+      <c r="B26" t="s">
+        <v>319</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" cm="1">
+        <f t="array" ref="D26">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A26),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>2128931.9300000002</v>
+      </c>
+      <c r="E26">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>2128931.9300000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>325720000036</v>
+      </c>
+      <c r="B27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" cm="1">
+        <f t="array" ref="D27">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A27),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>80890.600000000006</v>
+      </c>
+      <c r="E27">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>80890.600000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>325705000118</v>
+      </c>
+      <c r="B28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" cm="1">
+        <f t="array" ref="D28">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A28),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>646775</v>
+      </c>
+      <c r="E28">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>646775</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>325701000110</v>
+      </c>
+      <c r="B29" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" cm="1">
+        <f t="array" ref="D29">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A29),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>113407.8</v>
+      </c>
+      <c r="E29">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>113407.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>325720000002</v>
+      </c>
+      <c r="B30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" cm="1">
+        <f t="array" ref="D30">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A30),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>157505.04</v>
+      </c>
+      <c r="E30">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>157505.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>325705000165</v>
+      </c>
+      <c r="B31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" cm="1">
+        <f t="array" ref="D31">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A31),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>753887.5</v>
+      </c>
+      <c r="E31">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>753887.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>325705000073</v>
+      </c>
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" cm="1">
+        <f t="array" ref="D32">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A32),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>103510</v>
+      </c>
+      <c r="E32">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>103510</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>325720000072</v>
+      </c>
+      <c r="B33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" cm="1">
+        <f t="array" ref="D33">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A33),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>108711.8</v>
+      </c>
+      <c r="E33">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>108711.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>402001000474</v>
+      </c>
+      <c r="B34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" cm="1">
+        <f t="array" ref="D34">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A34),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>167960</v>
+      </c>
+      <c r="E34">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>167960</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>325703000022</v>
+      </c>
+      <c r="B35" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" cm="1">
+        <f t="array" ref="D35">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A35),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>192678</v>
+      </c>
+      <c r="E35">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>192678</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>125004000055</v>
+      </c>
+      <c r="B36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" cm="1">
+        <f t="array" ref="D36">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A36),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>14593.5</v>
+      </c>
+      <c r="E36">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>14593.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>325715000034</v>
+      </c>
+      <c r="B37" t="s">
+        <v>310</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" cm="1">
+        <f t="array" ref="D37">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A37),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>83790</v>
+      </c>
+      <c r="E37">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>83790</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>325703000000</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" cm="1">
+        <f t="array" ref="D38">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A38),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>15411</v>
+      </c>
+      <c r="E38">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>15411</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>34000260335</v>
+      </c>
+      <c r="B39" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" cm="1">
+        <f t="array" ref="D39">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A39),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>6600</v>
+      </c>
+      <c r="E39">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
+        <v>271921002601</v>
+      </c>
+      <c r="B40" t="s">
+        <v>320</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" cm="1">
+        <f t="array" ref="D40">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A40),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>2085.6</v>
+      </c>
+      <c r="E40">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>2085.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>84607000001</v>
+      </c>
+      <c r="B41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" cm="1">
+        <f t="array" ref="D41">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A41),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>94.08</v>
+      </c>
+      <c r="E41">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>94.08</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
+        <v>42200601190</v>
+      </c>
+      <c r="B42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" cm="1">
+        <f t="array" ref="D42">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A42),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>159</v>
+      </c>
+      <c r="E42">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
+        <v>280300635110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" cm="1">
+        <f t="array" ref="D43">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A43),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>522</v>
+      </c>
+      <c r="E43">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
+        <v>850000200005</v>
+      </c>
+      <c r="B44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" cm="1">
+        <f t="array" ref="D44">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A44),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>1138500</v>
+      </c>
+      <c r="E44">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>1138500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>325703000021</v>
+      </c>
+      <c r="B45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" cm="1">
+        <f t="array" ref="D45">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A45),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>164078</v>
+      </c>
+      <c r="E45">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>164078</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>32413003411</v>
+      </c>
+      <c r="B46" t="s">
+        <v>321</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" cm="1">
+        <f t="array" ref="D46">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A46),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>19311.599999999999</v>
+      </c>
+      <c r="E46">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>19311.599999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
+        <v>124300630000</v>
+      </c>
+      <c r="B47" t="s">
+        <v>322</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" cm="1">
+        <f t="array" ref="D47">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A47),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>19465.599999999999</v>
+      </c>
+      <c r="E47">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>19465.599999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
+        <v>34000260305</v>
+      </c>
+      <c r="B48" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" cm="1">
+        <f t="array" ref="D48">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A48),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>3982</v>
+      </c>
+      <c r="E48">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
+        <v>325712000003</v>
+      </c>
+      <c r="B49" t="s">
+        <v>323</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" cm="1">
+        <f t="array" ref="D49">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A49),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>10485</v>
+      </c>
+      <c r="E49">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>10485</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
+        <v>271921002613</v>
+      </c>
+      <c r="B50" t="s">
+        <v>324</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" cm="1">
+        <f t="array" ref="D50">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A50),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>620</v>
+      </c>
+      <c r="E50">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
+        <v>325715000033</v>
+      </c>
+      <c r="B51" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" cm="1">
+        <f t="array" ref="D51">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A51),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>78057</v>
+      </c>
+      <c r="E51">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>78057</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="8">
+        <v>325722000016</v>
+      </c>
+      <c r="B52" t="s">
+        <v>325</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" cm="1">
+        <f t="array" ref="D52">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A52),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>278432</v>
+      </c>
+      <c r="E52">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>278432</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
+        <v>325715000032</v>
+      </c>
+      <c r="B53" t="s">
+        <v>326</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" cm="1">
+        <f t="array" ref="D53">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A53),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>68355</v>
+      </c>
+      <c r="E53">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>68355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>325701000065</v>
+      </c>
+      <c r="B54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" cm="1">
+        <f t="array" ref="D54">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A54),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>408500</v>
+      </c>
+      <c r="E54">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>408500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
+        <v>536600103001</v>
+      </c>
+      <c r="B55" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" cm="1">
+        <f t="array" ref="D55">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A55),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>105500</v>
+      </c>
+      <c r="E55">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>105500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>930102358960</v>
+      </c>
+      <c r="B56" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" cm="1">
+        <f t="array" ref="D56">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A56),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>3887</v>
+      </c>
+      <c r="E56">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
+        <v>124301000001</v>
+      </c>
+      <c r="B57" t="s">
+        <v>327</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" cm="1">
+        <f t="array" ref="D57">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A57),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>19575.599999999999</v>
+      </c>
+      <c r="E57">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>19575.599999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>2351786</v>
+      </c>
+      <c r="B58" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" cm="1">
+        <f t="array" ref="D58">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A58),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>2200</v>
+      </c>
+      <c r="E58">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>34000420321</v>
+      </c>
+      <c r="B59" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" cm="1">
+        <f t="array" ref="D59">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A59),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>10062</v>
+      </c>
+      <c r="E59">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>10062</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
+        <v>271921004218</v>
+      </c>
+      <c r="B60" t="s">
+        <v>229</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" cm="1">
+        <f t="array" ref="D60">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A60),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>2600</v>
+      </c>
+      <c r="E60">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
+        <v>34000650312</v>
+      </c>
+      <c r="B61" t="s">
+        <v>328</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" cm="1">
+        <f t="array" ref="D61">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A61),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>14085</v>
+      </c>
+      <c r="E61">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>14085</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
+        <v>32413003412</v>
+      </c>
+      <c r="B62" t="s">
+        <v>329</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" cm="1">
+        <f t="array" ref="D62">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A62),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>22517</v>
+      </c>
+      <c r="E62">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>22517</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <v>271921006502</v>
+      </c>
+      <c r="B63" t="s">
+        <v>330</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" cm="1">
+        <f t="array" ref="D63">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A63),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>9786</v>
+      </c>
+      <c r="E63">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>9786</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="8">
+        <v>124201030000</v>
+      </c>
+      <c r="B64" t="s">
+        <v>331</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" cm="1">
+        <f t="array" ref="D64">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A64),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>179367</v>
+      </c>
+      <c r="E64">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>179367</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="8">
+        <v>402001001233</v>
+      </c>
+      <c r="B65" t="s">
+        <v>332</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" cm="1">
+        <f t="array" ref="D65">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A65),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>202786</v>
+      </c>
+      <c r="E65">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>202786</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
+        <v>43390060000</v>
+      </c>
+      <c r="B66" t="s">
+        <v>333</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" cm="1">
+        <f t="array" ref="D66">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A66),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>8.5</v>
+      </c>
+      <c r="E66">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="8">
+        <v>43390060001</v>
+      </c>
+      <c r="B67" t="s">
+        <v>334</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" cm="1">
+        <f t="array" ref="D67">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A67),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>12</v>
+      </c>
+      <c r="E67">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="8">
+        <v>124200250300</v>
+      </c>
+      <c r="B68" t="s">
+        <v>335</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" cm="1">
+        <f t="array" ref="D68">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A68),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>201500</v>
+      </c>
+      <c r="E68">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>201500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="8">
+        <v>32404002010</v>
+      </c>
+      <c r="B69" t="s">
+        <v>227</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" cm="1">
+        <f t="array" ref="D69">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A69),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>14760</v>
+      </c>
+      <c r="E69">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>14760</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="8">
+        <v>124202030000</v>
+      </c>
+      <c r="B70" t="s">
+        <v>336</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" cm="1">
+        <f t="array" ref="D70">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A70),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>212325</v>
+      </c>
+      <c r="E70">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>212325</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="8">
+        <v>34000650327</v>
+      </c>
+      <c r="B71" t="s">
+        <v>337</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" cm="1">
+        <f t="array" ref="D71">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A71),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>13981</v>
+      </c>
+      <c r="E71">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>13981</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
+        <v>325723000002</v>
+      </c>
+      <c r="B72" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" cm="1">
+        <f t="array" ref="D72">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A72),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>5570.4</v>
+      </c>
+      <c r="E72">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>5570.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="8">
+        <v>325703000029</v>
+      </c>
+      <c r="B73" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" cm="1">
+        <f t="array" ref="D73">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A73),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>158475</v>
+      </c>
+      <c r="E73">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>158475</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="8">
+        <v>325703000035</v>
+      </c>
+      <c r="B74" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" cm="1">
+        <f t="array" ref="D74">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A74),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>307150</v>
+      </c>
+      <c r="E74">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>307150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="8">
+        <v>33010469</v>
+      </c>
+      <c r="B75" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" cm="1">
+        <f t="array" ref="D75">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A75),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>1590</v>
+      </c>
+      <c r="E75">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
+        <v>40992503102</v>
+      </c>
+      <c r="B76" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" cm="1">
+        <f t="array" ref="D76">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A76),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>115</v>
+      </c>
+      <c r="E76">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
+        <v>402001001103</v>
+      </c>
+      <c r="B77" t="s">
+        <v>338</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" cm="1">
+        <f t="array" ref="D77">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A77),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>134126</v>
+      </c>
+      <c r="E77">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>134126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="8">
+        <v>271921010004</v>
+      </c>
+      <c r="B78" t="s">
+        <v>312</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" cm="1">
+        <f t="array" ref="D78">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A78),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>10197</v>
+      </c>
+      <c r="E78">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>10197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="8">
+        <v>42201001190</v>
+      </c>
+      <c r="B79" t="s">
+        <v>224</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" cm="1">
+        <f t="array" ref="D79">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A79),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>124.090538</v>
+      </c>
+      <c r="E79">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>124.090538</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="8">
+        <v>34001000332</v>
+      </c>
+      <c r="B80" t="s">
+        <v>314</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" cm="1">
+        <f t="array" ref="D80">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A80),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>19818.070769999998</v>
+      </c>
+      <c r="E80">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>19818.070769999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="8">
+        <v>124300630003</v>
+      </c>
+      <c r="B81" t="s">
+        <v>339</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" cm="1">
+        <f t="array" ref="D81">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A81),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>3740</v>
+      </c>
+      <c r="E81">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="8">
+        <v>325721000028</v>
+      </c>
+      <c r="B82" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" cm="1">
+        <f t="array" ref="D82">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A82),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>30389</v>
+      </c>
+      <c r="E82">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>30389</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="8">
+        <v>325701000100</v>
+      </c>
+      <c r="B83" t="s">
+        <v>340</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" cm="1">
+        <f t="array" ref="D83">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A83),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>207745</v>
+      </c>
+      <c r="E83">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>207745</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="8">
+        <v>325702000028</v>
+      </c>
+      <c r="B84" t="s">
+        <v>341</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" cm="1">
+        <f t="array" ref="D84">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A84),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>1165</v>
+      </c>
+      <c r="E84">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="8">
+        <v>325702000029</v>
+      </c>
+      <c r="B85" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" cm="1">
+        <f t="array" ref="D85">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A85),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>920</v>
+      </c>
+      <c r="E85">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>920</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="8">
+        <v>325702000063</v>
+      </c>
+      <c r="B86" t="s">
+        <v>342</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" cm="1">
+        <f t="array" ref="D86">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A86),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>60000</v>
+      </c>
+      <c r="E86">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="8">
+        <v>325711000186</v>
+      </c>
+      <c r="B87" t="s">
+        <v>343</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" cm="1">
+        <f t="array" ref="D87">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A87),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>130500</v>
+      </c>
+      <c r="E87">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>130500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="8">
+        <v>325711000012</v>
+      </c>
+      <c r="B88" t="s">
+        <v>344</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" cm="1">
+        <f t="array" ref="D88">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A88),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>2708.2</v>
+      </c>
+      <c r="E88">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>2708.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="8">
+        <v>33010307</v>
+      </c>
+      <c r="B89" t="s">
+        <v>345</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" cm="1">
+        <f t="array" ref="D89">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A89),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>20576.16</v>
+      </c>
+      <c r="E89">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>20576.16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="8">
+        <v>402001001104</v>
+      </c>
+      <c r="B90" t="s">
+        <v>346</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" cm="1">
+        <f t="array" ref="D90">LOOKUP(2,1/([1]VEPL_SMARTSOLUTION_DTP_INR!C$2:C$10000=A90),
+         [1]VEPL_SMARTSOLUTION_DTP_INR!K$2:K$10000)</f>
+        <v>131850</v>
+      </c>
+      <c r="E90">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>131850</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" t="s">
+        <v>163</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <f>Table7[[#This Row],[Quantity]]*Table7[[#This Row],[LP]]</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>